--- a/data/Eventos_Mestrandos.xlsx
+++ b/data/Eventos_Mestrandos.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -694,23 +694,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>João Pedro Teixeira Ferreira Thimoteo</t>
+          <t>Lenilson Nóbrega da Silva de Oliveira</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>THIMOTEO, João Pedro. Economia, política e história: reconstruir as bases da interpretação marxista-revolucionária do mundo.. 2024; Tema:
-						Marxismo. (Blog).</t>
+          <t>OLIVEIRA, L. N. S.. Práticas da advocacia, gestão e rotina de escritórios. 2023. (Exposição).</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Lenilson Nóbrega da Silva de Oliveira</t>
+          <t>Luana Camila Da Silva Rosario</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -718,7 +717,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>OLIVEIRA, L. N. S.. Práticas da advocacia, gestão e rotina de escritórios. 2023. (Exposição).</t>
+          <t>ROSARIO, Luana; SILVA, D. F. ; CARDOSO, M. V. O. ; MENDES, I. C. M. ; FARIA, T. B. ; ROSA, A. ; MARTINS, L. I. ; GOMES, I. S. ; BARBOSA, D. S. ; PIRES, L. C. ; MEDINA, I. S. L. . Jornada de Estudos Históricos Professor Manoel Salgado. 2023. (Outro).</t>
         </is>
       </c>
     </row>
@@ -729,11 +728,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ROSARIO, Luana; SILVA, D. F. ; CARDOSO, M. V. O. ; MENDES, I. C. M. ; FARIA, T. B. ; ROSA, A. ; MARTINS, L. I. ; GOMES, I. S. ; BARBOSA, D. S. ; PIRES, L. C. ; MEDINA, I. S. L. . Jornada de Estudos Históricos Professor Manoel Salgado. 2023. (Outro).</t>
+          <t>MAIA, Andréa Casa Nova ;ROSARIO, Luana. XVI Encontro Nacional de História Oral: Pandemia e Futuros Possíveis (MONITOR). 2022. (Outro).</t>
         </is>
       </c>
     </row>
@@ -744,56 +743,56 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MAIA, Andréa Casa Nova ;ROSARIO, Luana. XVI Encontro Nacional de História Oral: Pandemia e Futuros Possíveis (MONITOR). 2022. (Outro).</t>
+          <t>FARIAS, W. G. ; TERRIBAS, B. ; CARMO, J. ; DIAS, A. S. ; MACHADO, D. C. ; TRINDADE, J. L. ; LIMA, M. G. ;ROSARIO, Luana. Naqueles tempos... Memórias Petroleiras na Amazônia. 2021. (Exposição).</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Luana Camila Da Silva Rosario</t>
+          <t>Luca Araujo de Oliveira Leite</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>FARIAS, W. G. ; TERRIBAS, B. ; CARMO, J. ; DIAS, A. S. ; MACHADO, D. C. ; TRINDADE, J. L. ; LIMA, M. G. ;ROSARIO, Luana. Naqueles tempos... Memórias Petroleiras na Amazônia. 2021. (Exposição).</t>
+          <t>LEITE, LUCA; SILVA, A. G. ; SALES, G. P. ; BARBOSA, N. A. ; COSTA, H. M. C. R. ; MOREIRA, P. F. ; ARAUJO, B. A. ; FARIAS, M. S. . III Encontro Virtual de Laboratórios de História Ambiental do Brasil. 2022. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Luca Araujo de Oliveira Leite</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LEITE, LUCA; SILVA, A. G. ; SALES, G. P. ; BARBOSA, N. A. ; COSTA, H. M. C. R. ; MOREIRA, P. F. ; ARAUJO, B. A. ; FARIAS, M. S. . III Encontro Virtual de Laboratórios de História Ambiental do Brasil. 2022. (Outro).</t>
+          <t>BARROSO, L; SILVA, Q. O ;FREITAS, T. S;CONCEIÇÃO, A. A;CAMARGO, J. L;QUEIROZ, A. C. B. Os 60 anos de 1964 e os impactos na UFRJ. 2024. (Exposição).</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Luca Araujo de Oliveira Leite</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>LEITE, LUCA. ?Generosidade da Terra, Ingratidão dos Homens?: Conservação da Natureza no Brasil Império. 2022. (Curso de curta duração ministrado/Extensão).</t>
+          <t>QUEIROZ, A. C. B;CONCEIÇÃO, A. A;CAMARGO, J. L;BARROSO, L; SILVA, Q. O ;FREITAS, T. S;BORGES, V. V. B. C. 12º Seminário Memória, Documentação e Pesquisa. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -808,7 +807,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BARROSO, L; SILVA, Q. O ;FREITAS, T. S;CONCEIÇÃO, A. A;CAMARGO, J. L;QUEIROZ, A. C. B. Os 60 anos de 1964 e os impactos na UFRJ. 2024. (Exposição).</t>
+          <t>SANTOS, J. L. D. M;FARIAS, F. F. C;CRUZ, U. R. X;REGO, L. B. I Congresso Nacional de Educação para a Cidadania. 2024. (Concurso).</t>
         </is>
       </c>
     </row>
@@ -819,11 +818,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>QUEIROZ, A. C. B;CONCEIÇÃO, A. A;CAMARGO, J. L;BARROSO, L; SILVA, Q. O ;FREITAS, T. S;BORGES, V. V. B. C. 12º Seminário Memória, Documentação e Pesquisa. 2024. (Congresso).</t>
+          <t>QUEIROZ, A. C. B;CONCEIÇÃO, A. A;CAMARGO, J. L;BARROSO, L. Josué de Castro e o seu legado. 2023. (Exposição).</t>
         </is>
       </c>
     </row>
@@ -834,11 +833,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SANTOS, J. L. D. M;FARIAS, F. F. C;CRUZ, U. R. X;REGO, L. B. I Congresso Nacional de Educação para a Cidadania. 2024. (Concurso).</t>
+          <t>QUEIROZ, A. C. B;CONCEIÇÃO, A. A;CAMARGO, J. L; CARVALHO, A ;BARROSO, L. CAp UFRJ 75 Anos. 2023. (Exposição).</t>
         </is>
       </c>
     </row>
@@ -849,11 +848,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>QUEIROZ, A. C. B;CONCEIÇÃO, A. A;CAMARGO, J. L;BARROSO, L. Josué de Castro e o seu legado. 2023. (Exposição).</t>
+          <t>GONCALVES, P. A. M. ;RIOS, M. F. B;BARROSO, L; AGUIAR, S ; BARONI, G ; GABRIELA, M ; MILENA, A ; VICTORIA, M ;COSTA, Y. X. A.. Congresso Nacional Multidisciplinar em Ciência. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -864,11 +863,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>QUEIROZ, A. C. B;CONCEIÇÃO, A. A;CAMARGO, J. L; CARVALHO, A ;BARROSO, L. CAp UFRJ 75 Anos. 2023. (Exposição).</t>
+          <t>COSTA, B. T; SANTI, J ;BARROSO, L;MAIA, H. L. M;VENTURA, A. C. S;PARIZANI, R; FEREIRA, K ; STOFEL, B ; CASTRO, A. . 11ª Semana de Integração Acadêmica da UFRJ. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -883,7 +882,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>GONCALVES, P. A. M. ;RIOS, M. F. B;BARROSO, L; AGUIAR, S ; BARONI, G ; GABRIELA, M ; MILENA, A ; VICTORIA, M ;COSTA, Y. X. A.. Congresso Nacional Multidisciplinar em Ciência. 2022. (Congresso).</t>
+          <t>PESSOA, A. E. S;LEITE, P. G;AKINRULI, L. C. M. C;BARROSO, L;PAZ, L. F. S. XX Encontro Estadual de História da Associação Nacional de História - Seção Paraíba (ANPUH-PB). 2022. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -898,7 +897,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>COSTA, B. T; SANTI, J ;BARROSO, L;MAIA, H. L. M;VENTURA, A. C. S;PARIZANI, R; FEREIRA, K ; STOFEL, B ; CASTRO, A. . 11ª Semana de Integração Acadêmica da UFRJ. 2022. (Congresso).</t>
+          <t>QUEIROZ, A. C. B;CAMARGO, J. L;SOTO, M. C;CONCEIÇÃO, A. A;PAES, F. W;BARROSO, L;FREITAS, T. S. A UFRJ e o 7 de setembro: os usos políticos do passado. 2022. (Exposição).</t>
         </is>
       </c>
     </row>
@@ -913,7 +912,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PESSOA, A. E. S;LEITE, P. G;AKINRULI, L. C. M. C;BARROSO, L;PAZ, L. F. S. XX Encontro Estadual de História da Associação Nacional de História - Seção Paraíba (ANPUH-PB). 2022. (Congresso).</t>
+          <t>QUEIROZ, A. C. B;CAMARGO, J. L;SOTO, M. C;CONCEIÇÃO, A. A;PAES, F. W;BARROSO, L;FREITAS, T. S. Galeria de Reitores da Universidade Federal do Rio de Janeiro (UFRJ). 2022. (Exposição).</t>
         </is>
       </c>
     </row>
@@ -928,7 +927,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>QUEIROZ, A. C. B;CAMARGO, J. L;SOTO, M. C;CONCEIÇÃO, A. A;PAES, F. W;BARROSO, L;FREITAS, T. S. A UFRJ e o 7 de setembro: os usos políticos do passado. 2022. (Exposição).</t>
+          <t>BARROSO, L. 1º Concurso de Educação Étnico-Racial nas Escolas. 2022. (Concurso).</t>
         </is>
       </c>
     </row>
@@ -939,11 +938,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>QUEIROZ, A. C. B;CAMARGO, J. L;SOTO, M. C;CONCEIÇÃO, A. A;PAES, F. W;BARROSO, L;FREITAS, T. S. Galeria de Reitores da Universidade Federal do Rio de Janeiro (UFRJ). 2022. (Exposição).</t>
+          <t>FREITAS, I. S;FREITAS, I. P. S;BARROSO, L;AMORIM, J. S;BRAGA, B. M. R;CARVALHO, K. R;SALES, T. C. R;SILVA, J. F. T;VIANA, R. T. L. I Mostra Científica Nacional. 2021. (Exposição).</t>
         </is>
       </c>
     </row>
@@ -954,11 +953,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>BARROSO, L. 1º Concurso de Educação Étnico-Racial nas Escolas. 2022. (Concurso).</t>
+          <t>HOLANDA, M. D;PEREIRA, A. R;SILVA, I. S;CARNEIRO, P. H. W;BARROSO, L;LIMA, L. G. R;SILVA, W. M. A;OLIVEIRA, E. S. S. XII Encontro Regional Norte de História Oral &amp; IV Congresso Pan-Amazônico. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -973,7 +972,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>FREITAS, I. S;FREITAS, I. P. S;BARROSO, L;AMORIM, J. S;BRAGA, B. M. R;CARVALHO, K. R;SALES, T. C. R;SILVA, J. F. T;VIANA, R. T. L. I Mostra Científica Nacional. 2021. (Exposição).</t>
+          <t>CARVALHO, C. P;SILVA, R. B;MELO, E. S. O;BARROSO, L;RIBEIRO, L. O;MOREIRA, L. B.;PIMENTEL, K. S. M;VALERIO, C. D. D;REIS, M. F;GOMES, J. C. A. XXVI Semana IPPUR. 2021. (Outro).</t>
         </is>
       </c>
     </row>
@@ -988,7 +987,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>HOLANDA, M. D;PEREIRA, A. R;SILVA, I. S;CARNEIRO, P. H. W;BARROSO, L;LIMA, L. G. R;SILVA, W. M. A;OLIVEIRA, E. S. S. XII Encontro Regional Norte de História Oral &amp; IV Congresso Pan-Amazônico. 2021. (Congresso).</t>
+          <t>ANJOS, R. C. S;OLIVEIRA, M. M;RIBEIRO, A. C. S. M; BARROS, R ;BARROSO, L. IX Seminário de Integração dos Servidores Técnico-Administrativos em Educação. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -1003,92 +1002,89 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CARVALHO, C. P;SILVA, R. B;MELO, E. S. O;BARROSO, L;RIBEIRO, L. O;MOREIRA, L. B.;PIMENTEL, K. S. M;VALERIO, C. D. D;REIS, M. F;GOMES, J. C. A. XXVI Semana IPPUR. 2021. (Outro).</t>
+          <t>COSTA, B. T;BARROSO, L;CARDOSO, A. M. A. S;FIALHO, F. D. O;MAGALHAES, F. R. P;SANTIAGO, F. R. S. M;SANTOS, M. E. A. L. R. N;VENTURA, A. C. S. Festival do Conhecimento UFRJ - Futuros Possíveis. 2021. (Exposição).</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Maria Vitória de Oliveira Cardoso</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ANJOS, R. C. S;OLIVEIRA, M. M;RIBEIRO, A. C. S. M; BARROS, R ;BARROSO, L. IX Seminário de Integração dos Servidores Técnico-Administrativos em Educação. 2021. (Congresso).</t>
+          <t>SEMINÁRIO DE DIREITO ELEITORAL - PARÁ 2022. 2022. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Maria Vitória de Oliveira Cardoso</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>COSTA, B. T;BARROSO, L;CARDOSO, A. M. A. S;FIALHO, F. D. O;MAGALHAES, F. R. P;SANTIAGO, F. R. S. M;SANTOS, M. E. A. L. R. N;VENTURA, A. C. S. Festival do Conhecimento UFRJ - Futuros Possíveis. 2021. (Exposição).</t>
+          <t>Místicos e Bárbaros - Corpo, Sabor e Fé. 2022. (Exposição).</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Nicolle Sthefane de Oliveira Lima</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ASSEMANY, D;NASCIMENTO, E. S;FERREIRA, G. V. L;GOUVEA, M. A;BARROSO, L. GEPIC. 2022; Tema:
-						Informações sobre o Grupo de Estudos e Pesquisas em Insubordinação Criativa (GEPIC). (Rede social).</t>
+          <t>LIMA, N. S. O.. XIV ENCONTRO INTERNACIONAL HANNAH ARENDT. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Nicolle Sthefane de Oliveira Lima</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>BARROSO, L;BARBOSA, S. L. M;SILVA, M. M. V. A. Cursos de Capacitação do Centro de Cidadania da Praia Vermelha (ESS/UFRJ). 2023; Tema:
-						Divulgação de ações de extensão. (Site).</t>
+          <t>LIMA, N. S. O.. Exposição Virtual 'Latino-americanes como nós'. 2022. (Exposição).</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Nicolle Sthefane de Oliveira Lima</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>BARROSO, L;ASSEMANY, D;BARBOSA, M. G;LAGRANGE, L. M;SANTIAGO, F. R. S. M;ARAUJO, A. S;SOUZA, V. M. Conexões em Conversa. 2021; Tema:
-						Rodas de Conversa sobre a Educação em diferentes contextos com professores convidados de países de cultura lusófona. (Rede social).</t>
+          <t>LIMA, N. S. O.. VII Semana de História - Encruzilhadas: Para onde vamos a partir daqui?. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Nicolle Sthefane de Oliveira Lima</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1096,76 +1092,74 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>MAIA, H. L. M;RIBEIRO, V. C;BARROSO, L;COSTA, J. B. C;DINIZ, A. S. Revista Arena. 2022; Tema:
-						Divulgação das produções textuais da Revista Arena, além de indicações e resumos semanais. (Rede social).</t>
+          <t>LIMA, N. S. O.. Mostra Universitária UFV. 2022. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Paulo Cesar Machado Farias Junior</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>BARROSO, L;FREITAS, I. P. S;FREITAS, I. S;RIBEIRO, L. A. A;SALES, T. C. R;VIANA, R. T. L. Instituto Science. 2021; Tema:
-						Divulgação de temáticas científicas e de eventos acadêmicos. (Rede social).</t>
+          <t>MACHADO, P. C.. Jornada de Estudos Históricos Professor Manoel Salgado. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Lucas Souza Nascimento</t>
+          <t>Samuel Barbosa Junior</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NASCIMENTO, L. S.. 20 anos da lei 10.639 e a educação antirracista. 20 anos da lei 10.639 e a educação antirracista, Rio de Janeiro, p. 1 - 2, 30 jan.  2023.</t>
+          <t>BARBOSA JUNIOR, S.. Usos Políticos do Holocausto e do Genocídio. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Maria Vitória de Oliveira Cardoso</t>
+          <t>Samuel Barbosa Junior</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SEMINÁRIO DE DIREITO ELEITORAL - PARÁ 2022. 2022. (Outro).</t>
+          <t>BARBOSA JUNIOR, S.. I Encontro de Pesquisa sobre História Política e Extrema Direita. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Maria Vitória de Oliveira Cardoso</t>
+          <t>Thaís Regina Cardoso Barbosa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Místicos e Bárbaros - Corpo, Sabor e Fé. 2022. (Exposição).</t>
+          <t>BARBOSA, T. R. C.. Jornada Manoel Salgado - UFRJ. 2023. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Nicolle Sthefane de Oliveira Lima</t>
+          <t>Victor Lisboa da Fonseca Santos</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1173,14 +1167,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>LIMA, N. S. O.. XIV ENCONTRO INTERNACIONAL HANNAH ARENDT. 2023. (Congresso).</t>
+          <t>FONTES, A. L. ; Gaia, D.V. ; LESSA, F. S. ;SANTOS, Victor Lisboa da Fonseca. XXXIII Ciclo de Debates em História Antiga ? História Antiga em Movimento: 30 anos do LHIA.. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Nicolle Sthefane de Oliveira Lima</t>
+          <t>Victor Lisboa da Fonseca Santos</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1188,44 +1182,44 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>LIMA, N. S. O.. Exposição Virtual 'Latino-americanes como nós'. 2022. (Exposição).</t>
+          <t>SANTOS, Victor Lisboa da Fonseca. XXXII Ciclo de Debates em História Antiga do Laboratório de História Antiga da UFRJ. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Nicolle Sthefane de Oliveira Lima</t>
+          <t>Victor Lisboa da Fonseca Santos</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>LIMA, N. S. O.. VII Semana de História - Encruzilhadas: Para onde vamos a partir daqui?. 2022. (Congresso).</t>
+          <t>SANTOS, Victor Lisboa da Fonseca. XXXI CIclo de Debates em História Antiga do Laboratório de História Antiga da UFRJ. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Nicolle Sthefane de Oliveira Lima</t>
+          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>LIMA, N. S. O.. Mostra Universitária UFV. 2022. (Outro).</t>
+          <t>MOREIRA, A. ; MÜLLER, A. ; PIMENTEL, I. ; CORRÊA, L. ; GRINBERG, L. ; ARAUJO, M. P. ; MORAES, R. ; QUADRAT, S. ;GONÇALVES, V. P. S. M.. Seminário 60 anos do golpe: história, memória e novas abordagens da ditadura no Brasil. 2024. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Nicolle Sthefane de Oliveira Lima</t>
+          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1233,15 +1227,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>LIMA, N. S. O.; BHERING, A. D. . Primeira Guerra Mundial: o conhecimento histórico e outros protagonistas.
-						2021. (Desenvolvimento de material didático ou instrucional - Videoaula - Material de apoio ao ensino remoto).</t>
+          <t>ANDRADE, M. C. S.;ARAUJO, M. P. N.;CAMPANHOLO, B. G.;EUGENIO, A. S.;FONTES SOBRINHO, D.;GHERMAN, M.;GONÇALVES, V. P. S. M.;MARTINS, M. V.;NASCIMENTO, B. M.;PINTO, S. A.;SILVA, I. G.;SILVA, I. P. P.;SILVA, L. C.;TARDITE, V. N.. 45 anos do golpe e da ditadura na Argentina: História, memória e diálogos com o Brasil. 2021. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Paulo Cesar Machado Farias Junior</t>
+          <t>Vitória Luyza Cardoso Barbosa</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1249,29 +1242,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MACHADO, P. C.. Jornada de Estudos Históricos Professor Manoel Salgado. 2024. (Congresso).</t>
+          <t>LEMOS, Cesar de Miranda e;BARBOSA, V. L. C.. Repensando o Brasil: Arqueologia, História e Novas Perspectivas para a Construção do Passado. 2024. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Samuel Barbosa Junior</t>
+          <t>Vitória Luyza Cardoso Barbosa</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>BARBOSA JUNIOR, S.. Usos Políticos do Holocausto e do Genocídio. 2024. (Congresso).</t>
+          <t>LEMOS, Cesar de Miranda e;BARBOSA, V. L. C.; VICENTE, M. A. D. . O dia dos povos indígenas: a lei 11.645/2008 e o ensino e a pesquisa em História Indígena. 2023. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Samuel Barbosa Junior</t>
+          <t>Vitória Luyza Cardoso Barbosa</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1279,44 +1272,44 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>BARBOSA JUNIOR, S.. I Encontro de Pesquisa sobre História Política e Extrema Direita. 2023. (Congresso).</t>
+          <t>LEMOS, Cesar de Miranda e;BARBOSA, V. L. C.; VICENTE, M. A. D. . Por uma educação anti-racista: do MPI a sala de aula. 2023. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Thaís Regina Cardoso Barbosa</t>
+          <t>Vitória Luyza Cardoso Barbosa</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>BARBOSA, T. R. C.. Jornada Manoel Salgado - UFRJ. 2023. (Outro).</t>
+          <t>BARBOSA, V. L. C.. V Semana de História da Universidade Federal do Rio de Janeiro - Outras memórias, novas narrativas: os lugares da historiografia na visibilização de sujeitos marginalizados em discursos sobre o passado. 2022. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Thaís Regina Cardoso Barbosa</t>
+          <t>Ísis Carla Vieira Ferreira Coelho</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>BARBOSA, T. R. C.. Revús: Tumulto social ou revolução total. 2023. (Apresentação de Trabalho/Simpósio).</t>
+          <t>COELHO, Í. C. V. F.. Jornada Acadêmica Manoel Salgado. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Victor Lisboa da Fonseca Santos</t>
+          <t>Ísis Carla Vieira Ferreira Coelho</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1324,185 +1317,20 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>FONTES, A. L. ; Gaia, D.V. ; LESSA, F. S. ;SANTOS, Victor Lisboa da Fonseca. XXXIII Ciclo de Debates em História Antiga ? História Antiga em Movimento: 30 anos do LHIA.. 2023. (Congresso).</t>
+          <t>COELHO, Í. C. V. F.. Museu de Favela 15 anos. 2023. (Exposição).</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Victor Lisboa da Fonseca Santos</t>
+          <t>Ísis Carla Vieira Ferreira Coelho</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C60" t="inlineStr">
-        <is>
-          <t>SANTOS, Victor Lisboa da Fonseca. XXXII Ciclo de Debates em História Antiga do Laboratório de História Antiga da UFRJ. 2022. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Victor Lisboa da Fonseca Santos</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>SANTOS, Victor Lisboa da Fonseca. XXXI CIclo de Debates em História Antiga do Laboratório de História Antiga da UFRJ. 2021. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>MOREIRA, A. ; MÜLLER, A. ; PIMENTEL, I. ; CORRÊA, L. ; GRINBERG, L. ; ARAUJO, M. P. ; MORAES, R. ; QUADRAT, S. ;GONÇALVES, V. P. S. M.. Seminário 60 anos do golpe: história, memória e novas abordagens da ditadura no Brasil. 2024. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>ANDRADE, M. C. S.;ARAUJO, M. P. N.;CAMPANHOLO, B. G.;EUGENIO, A. S.;FONTES SOBRINHO, D.;GHERMAN, M.;GONÇALVES, V. P. S. M.;MARTINS, M. V.;NASCIMENTO, B. M.;PINTO, S. A.;SILVA, I. G.;SILVA, I. P. P.;SILVA, L. C.;TARDITE, V. N.. 45 anos do golpe e da ditadura na Argentina: História, memória e diálogos com o Brasil. 2021. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Vitória Luyza Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>LEMOS, Cesar de Miranda e;BARBOSA, V. L. C.. Repensando o Brasil: Arqueologia, História e Novas Perspectivas para a Construção do Passado. 2024. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Vitória Luyza Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>LEMOS, Cesar de Miranda e;BARBOSA, V. L. C.; VICENTE, M. A. D. . O dia dos povos indígenas: a lei 11.645/2008 e o ensino e a pesquisa em História Indígena. 2023. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Vitória Luyza Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>LEMOS, Cesar de Miranda e;BARBOSA, V. L. C.; VICENTE, M. A. D. . Por uma educação anti-racista: do MPI a sala de aula. 2023. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Vitória Luyza Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>BARBOSA, V. L. C.. V Semana de História da Universidade Federal do Rio de Janeiro - Outras memórias, novas narrativas: os lugares da historiografia na visibilização de sujeitos marginalizados em discursos sobre o passado. 2022. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Vitória Luyza Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>BARBOSA, V. L. C.;SCHEEL-YBERT, R.;MEDEIROS, N. F. M.;TUTUNJI, N. M.;LOPES, B. S. G.;ANDRADE, V. S. D.;NASCIMENTO, T. C.;CAPUCHO, T. C. J. P.;PATZLAFF, R.;AZEVEDO, L. W.. Projeto de extensão Arqueologia Viva: primeiras impressões. 2021. (Apresentação de Trabalho/Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Ísis Carla Vieira Ferreira Coelho</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>COELHO, Í. C. V. F.. Jornada Acadêmica Manoel Salgado. 2024. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Ísis Carla Vieira Ferreira Coelho</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>COELHO, Í. C. V. F.. Museu de Favela 15 anos. 2023. (Exposição).</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Ísis Carla Vieira Ferreira Coelho</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C71" t="inlineStr">
         <is>
           <t>COELHO, Í. C. V. F.. Projeto Um Século. 2023. (Exposição).</t>
         </is>
@@ -1519,7 +1347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C345"/>
+  <dimension ref="A1:C283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1577,7 +1405,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Alessandra Nóbrega Monteiro</t>
+          <t>Amanda De Carvalho Santos Lima</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1585,22 +1413,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MONTEIRO, A. N.. Jornada de Estudos Históricos Manoel Salgado Guimarães. 2024. (Outro).</t>
+          <t>Ciclo de debates da disciplina ?Mulheres imaginadas: os usos da herança greco-romana nas concepções do natural feminino oitocentista?,.Representações da imperatriz romana Élia Eudóxia: uma análise de gênero nas Histórias Eclesiásticas do século V. 2024. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Alessandra Nóbrega Monteiro</t>
+          <t>Amanda De Carvalho Santos Lima</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MONTEIRO, A. N.. 12ª Semana de Integração Acadêmica da UFRJ. 2023. (Outro).</t>
+          <t>IV CICLO DE DEBATES DO BRATHAIR-MA-Construindo Horizontes Globais: Abordagens Interdisciplinares na História.O conflito entre a imperatriz Élia Eudóxia (395 - 404) e o bispo João Crisóstomo (397 - 407):  um estudo sobre representações da atuação feminina em Constantinopla.
+						2024. (Simpósio).</t>
         </is>
       </c>
     </row>
@@ -1615,7 +1444,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ciclo de debates da disciplina ?Mulheres imaginadas: os usos da herança greco-romana nas concepções do natural feminino oitocentista?,.Representações da imperatriz romana Élia Eudóxia: uma análise de gênero nas Histórias Eclesiásticas do século V. 2024. (Outra).</t>
+          <t>IV Seminário Mulheres na História, na Literatura e  nas Artes: entre práticas e representações.A atuação imperial feminina na sociedade tardo antiga: representações da Imperatriz Élia Eudóxia (395-404) em  Constantinopla. 2024. (Seminário).</t>
         </is>
       </c>
     </row>
@@ -1630,8 +1459,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>IV CICLO DE DEBATES DO BRATHAIR-MA-Construindo Horizontes Globais: Abordagens Interdisciplinares na História.O conflito entre a imperatriz Élia Eudóxia (395 - 404) e o bispo João Crisóstomo (397 - 407):  um estudo sobre representações da atuação feminina em Constantinopla.
-						2024. (Simpósio).</t>
+          <t>XX Jornada de História Antiga e Medieval e IV Jornada Virtual Internacional de História Mitos, Festivais e Representações no Mediterrâneo Antigo. Piedosa ou manipuladora? Representações da imperatriz romana Élia Eudóxia (395-404) em conflito com o bispo João Crisóstomo (397-403). 2024. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1474,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>IV Seminário Mulheres na História, na Literatura e  nas Artes: entre práticas e representações.A atuação imperial feminina na sociedade tardo antiga: representações da Imperatriz Élia Eudóxia (395-404) em  Constantinopla. 2024. (Seminário).</t>
+          <t>XXXIV Ciclo de Debates em História Antiga: VIda e Experiências do tempo. As representações da Imperatriz Romana Élia Eudóxia(395-404) nas Histórias Eclesiásticas do século V: A atuação imperial feminina na Antiguidade Tardia. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1489,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>XX Jornada de História Antiga e Medieval e IV Jornada Virtual Internacional de História Mitos, Festivais e Representações no Mediterrâneo Antigo. Piedosa ou manipuladora? Representações da imperatriz romana Élia Eudóxia (395-404) em conflito com o bispo João Crisóstomo (397-403). 2024. (Congresso).</t>
+          <t>XXXV Semana de História.A autoridade feminina em Constantinopla: representações da imperatriz Eudóxia (395-404) em conflitos com a elite eclesiástica. 2024. (Seminário).</t>
         </is>
       </c>
     </row>
@@ -1672,11 +1500,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>XXXIV Ciclo de Debates em História Antiga: VIda e Experiências do tempo. As representações da Imperatriz Romana Élia Eudóxia(395-404) nas Histórias Eclesiásticas do século V: A atuação imperial feminina na Antiguidade Tardia. 2024. (Congresso).</t>
+          <t>12a Semana de Integração Acadêmica da UFRJ.A autoridade feminina no Império Romano do Oriente: representações da imperatriz Eudóxia (395-404) em conflitos com a elite eclesiástica.
+						2023. (Simpósio).</t>
         </is>
       </c>
     </row>
@@ -1687,11 +1516,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>XXXV Semana de História.A autoridade feminina em Constantinopla: representações da imperatriz Eudóxia (395-404) em conflitos com a elite eclesiástica. 2024. (Seminário).</t>
+          <t>IV Simpósio de História Antiga e Medieval.As representações da atuação política feminina no oriente tardo antigo: o caso da imperatriz Élia Eudóxia (395-404).
+						2023. (Simpósio).</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1536,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>12a Semana de Integração Acadêmica da UFRJ.A autoridade feminina no Império Romano do Oriente: representações da imperatriz Eudóxia (395-404) em conflitos com a elite eclesiástica.
+          <t>VI Encontro Discente de História do Programa de Pós-graduação em História da Universidade Federal do Rio Grande do Sul.A Imperatriz Eudóxia e a cristianização de Gaza: o caso da construção da Igreja Eudoxiana.
 						2023. (Simpósio).</t>
         </is>
       </c>
@@ -1722,8 +1552,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>IV Simpósio de História Antiga e Medieval.As representações da atuação política feminina no oriente tardo antigo: o caso da imperatriz Élia Eudóxia (395-404).
-						2023. (Simpósio).</t>
+          <t>XIX Jornada de História Antiga e III Jornada Virtual Internacional de História Antiga e Medieval - Religião, Conectividade e Conflitos no Mediterrâneo  Antigo. Conflitos entre o poder imperial e o episcopado romano: o caso da Imperatriz Eudóxia (395-404) e o bispo João Crisóstomo em Constantinopla (397-403). 2023. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -1738,8 +1567,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>VI Encontro Discente de História do Programa de Pós-graduação em História da Universidade Federal do Rio Grande do Sul.A Imperatriz Eudóxia e a cristianização de Gaza: o caso da construção da Igreja Eudoxiana.
-						2023. (Simpósio).</t>
+          <t>XXXIII Ciclo de debates em História Antiga ? História Antiga em movimento: 30 Anos do LHIA. Representações da autoridade feminina em conflitos com a elite eclesiástica na sociedade tardo antiga: o caso da imperatriz Élia Eudóxia (395-404). 2023. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -1750,11 +1578,12 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>XIX Jornada de História Antiga e III Jornada Virtual Internacional de História Antiga e Medieval - Religião, Conectividade e Conflitos no Mediterrâneo  Antigo. Conflitos entre o poder imperial e o episcopado romano: o caso da Imperatriz Eudóxia (395-404) e o bispo João Crisóstomo em Constantinopla (397-403). 2023. (Congresso).</t>
+          <t>11ª Semana de integração acadêmica da UFRJ.Pinturas brasileiras como ferramenta de ensino para aulas interdisciplinares: Interação entre geografia, história e artes.
+						2022. (Simpósio).</t>
         </is>
       </c>
     </row>
@@ -1765,11 +1594,12 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>XXXIII Ciclo de debates em História Antiga ? História Antiga em movimento: 30 Anos do LHIA. Representações da autoridade feminina em conflitos com a elite eclesiástica na sociedade tardo antiga: o caso da imperatriz Élia Eudóxia (395-404). 2023. (Congresso).</t>
+          <t>11ª Semana de Integração Acadêmica da UFRJ.O conflito entre Eudóxia e João Crisóstomo: uma reflexão acerca da representação da imperatriz nas Histórias Eclesiásticas de Sócrates Escolástico e Sozomeno de Bethelia.
+						2022. (Simpósio).</t>
         </is>
       </c>
     </row>
@@ -1784,8 +1614,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>11ª Semana de integração acadêmica da UFRJ.Pinturas brasileiras como ferramenta de ensino para aulas interdisciplinares: Interação entre geografia, história e artes.
-						2022. (Simpósio).</t>
+          <t>I Congresso Online do Messalinas - Grupo de Estudos sobre Gênero e Sexualidade na Antiguidade. O conflito entre a imperatriz Eudóxia e o bispo João Crisóstomo: Uma reflexão acerca da representação da imperatriz nas Histórias Eclesiásticas de Sócrates Escolástico e Sozomeno de Bethelia. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -1800,7 +1629,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>11ª Semana de Integração Acadêmica da UFRJ.O conflito entre Eudóxia e João Crisóstomo: uma reflexão acerca da representação da imperatriz nas Histórias Eclesiásticas de Sócrates Escolástico e Sozomeno de Bethelia.
+          <t>III Simpósio de História Antiga e Medieval UNIVERSIDADE FEDERAL DO PAMPA: Decolonização e Descentramento das Histórias do Mundo Antigo e Medieval.Representações da autoridade feminina na Igreja do século IV - V d.C.:  o caso da imperatriz romana Élia Eudóxia (395-404).
 						2022. (Simpósio).</t>
         </is>
       </c>
@@ -1816,7 +1645,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>I Congresso Online do Messalinas - Grupo de Estudos sobre Gênero e Sexualidade na Antiguidade. O conflito entre a imperatriz Eudóxia e o bispo João Crisóstomo: Uma reflexão acerca da representação da imperatriz nas Histórias Eclesiásticas de Sócrates Escolástico e Sozomeno de Bethelia. 2022. (Congresso).</t>
+          <t>Semana de História 2022 PUC RIO.O conflito entre a imperatriz Eudóxia (377 d.C. - 404 d.C.) e o bispo João Crisóstomo (349 d.C. - 407 d.C.): uma reflexão sobre as representações da imperatriz nas Histórias Eclesiásticas de Sócrates Escolástico e Sozomeno de Betélia. 2022. (Seminário).</t>
         </is>
       </c>
     </row>
@@ -1831,7 +1660,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>III Simpósio de História Antiga e Medieval UNIVERSIDADE FEDERAL DO PAMPA: Decolonização e Descentramento das Histórias do Mundo Antigo e Medieval.Representações da autoridade feminina na Igreja do século IV - V d.C.:  o caso da imperatriz romana Élia Eudóxia (395-404).
+          <t>V Semana de História - Outras memórias, novas narrativas: os lugares da historiografia na visibilização de sujeitos marginalizados em discursos sobre o passado.Um estudo sobre as representações da autoridade feminina na Antiguidade Tardia: o caso da imperatriz romana Élia Eudóxia (395-404).
 						2022. (Simpósio).</t>
         </is>
       </c>
@@ -1839,68 +1668,69 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Amanda De Carvalho Santos Lima</t>
+          <t>Amaro Jose de Souza Neto</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Semana de História 2022 PUC RIO.O conflito entre a imperatriz Eudóxia (377 d.C. - 404 d.C.) e o bispo João Crisóstomo (349 d.C. - 407 d.C.): uma reflexão sobre as representações da imperatriz nas Histórias Eclesiásticas de Sócrates Escolástico e Sozomeno de Betélia. 2022. (Seminário).</t>
+          <t>Colóquio Teatro e Sociedade: Novas perspectivas da história social do Teatro. Grupo de Pesquisa História do Teatro Brasileiro. FAPERJ UNIRIO - Universidade Federal do Estado do Rio de Janeiro.
+						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Amanda De Carvalho Santos Lima</t>
+          <t>Amaro Jose de Souza Neto</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>V Semana de História - Outras memórias, novas narrativas: os lugares da historiografia na visibilização de sujeitos marginalizados em discursos sobre o passado.Um estudo sobre as representações da autoridade feminina na Antiguidade Tardia: o caso da imperatriz romana Élia Eudóxia (395-404).
-						2022. (Simpósio).</t>
+          <t>Curso de Atualização em Estudos Asiáticos - Módulo 1 Centro de Estudos Asiáticos (CEA-UFF). Universidade Federal Fluminense. Carga horária: 36 horas.
+						2021. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Amanda De Carvalho Santos Lima</t>
+          <t>Amaro Jose de Souza Neto</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LIMA, Amanda C. S.. XXXIV Ciclo de Debates em História Antiga: Vida e Experiências do tempo. 2024. (Congresso).</t>
+          <t>Curso de Extensão Surfando nos Acervos Digitais. Grupo de Pesquisa em Mídias, Tecnologias e História (Mitechis). Curso de História da Universidade Federal de Tocantins (UFT - Porto Nacional) Carga horária: 12 horas. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Amanda De Carvalho Santos Lima</t>
+          <t>Amaro Jose de Souza Neto</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AZEVEDO, S. F. L. D. ;LIMA, Amanda C. S.. I Congresso Online do Messalinas - Gênero e Sexualidade na Antiguidade: Possibilidades de Pesquisa e Ensino. 2022. (Congresso).</t>
+          <t>I Colóquio internacional: Educação, Política e Emancipação no pensamento de Jacques Rancière, Grupo de Estudos em Educação e Pensamento Contemporâneo (GEEPC) Faculdade de Educação da USP (FEUSP) CAPES FAPESP. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Amanda De Carvalho Santos Lima</t>
+          <t>Amaro Jose de Souza Neto</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1908,7 +1738,8 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BUSTAMANTE, R. M. ;LIMA, Amanda C. S.. Olhares brasileiros sobre o Egito Antigo?. 2021. (Outro).</t>
+          <t>II Colóquio da Revista Mare Nostrum (FFLCH/USP): Estudos sobre o Mediterrâneo Antigo. Universidade de São Paulo.
+						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
@@ -1923,8 +1754,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Colóquio Teatro e Sociedade: Novas perspectivas da história social do Teatro. Grupo de Pesquisa História do Teatro Brasileiro. FAPERJ UNIRIO - Universidade Federal do Estado do Rio de Janeiro.
-						2021. (Simpósio).</t>
+          <t>III Semana Acadêmica de História da UEMG: História Regional: fontes, abordagens e possibilidades na construção do conhecimento histórico. Universidade do Estado de Minas Gerais. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -1939,8 +1769,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Curso de Atualização em Estudos Asiáticos - Módulo 1 Centro de Estudos Asiáticos (CEA-UFF). Universidade Federal Fluminense. Carga horária: 36 horas.
-						2021. (Encontro).</t>
+          <t>II Jornada Internacional de Estudos Bizantinos e Medievo Oriental, organizado pelo Laboratório de Estudos Medievais (LEME/UNIFESP) e pelo Laboratório de Estudos Mediterrânicos e Bizantinos (LÆMEB) da Universidade Federal de São Paulo (UNIFESP). 2021. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -1955,7 +1784,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Curso de Extensão Surfando nos Acervos Digitais. Grupo de Pesquisa em Mídias, Tecnologias e História (Mitechis). Curso de História da Universidade Federal de Tocantins (UFT - Porto Nacional) Carga horária: 12 horas. 2021. (Congresso).</t>
+          <t>II Seminário Negras e Negros no Ceará: Rebelião dos Jangadeiros 110 Anos promovido pelo Grupo de Estudos Discurso, Identidades, Raça e Gênero (GEDIRG-UECE). Universidade Estadual do Ceará. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
@@ -1970,7 +1799,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>I Colóquio internacional: Educação, Política e Emancipação no pensamento de Jacques Rancière, Grupo de Estudos em Educação e Pensamento Contemporâneo (GEEPC) Faculdade de Educação da USP (FEUSP) CAPES FAPESP. 2021. (Congresso).</t>
+          <t>I Seminário de Pesquisa do PPGHISPAM: Programa de Pós-Graduação em História das Populações Amazônicas. UFT - Universidade Federal do Tocantins (Remoto). 2021. (Seminário).</t>
         </is>
       </c>
     </row>
@@ -1985,8 +1814,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>II Colóquio da Revista Mare Nostrum (FFLCH/USP): Estudos sobre o Mediterrâneo Antigo. Universidade de São Paulo.
-						2021. (Simpósio).</t>
+          <t>I Seminário do Centro de Estudos Asiáticos (CEA/UFF): 3 Anos Pesquisando a Ásia desde o Brasil. Universidade Federal Fluminense. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
@@ -2001,7 +1829,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>III Semana Acadêmica de História da UEMG: História Regional: fontes, abordagens e possibilidades na construção do conhecimento histórico. Universidade do Estado de Minas Gerais. 2021. (Congresso).</t>
+          <t>IV Seminário Internacional História do Tempo Presente:Programa de Pós Graduação em História (PPGH/FAED) da Universidade do Estado de Santa Catarina (UDESC). 2021. (Seminário).</t>
         </is>
       </c>
     </row>
@@ -2016,7 +1844,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>II Jornada Internacional de Estudos Bizantinos e Medievo Oriental, organizado pelo Laboratório de Estudos Medievais (LEME/UNIFESP) e pelo Laboratório de Estudos Mediterrânicos e Bizantinos (LÆMEB) da Universidade Federal de São Paulo (UNIFESP). 2021. (Congresso).</t>
+          <t>Minicurso - A lei 10.639/2003 da obrigatoriedade do ensino da história e cultura afro-brasileira e africana: possibilidades e desafios após 17 anos. Faculdade de História UEMG Divinópolis. 2021. (Oficina).</t>
         </is>
       </c>
     </row>
@@ -2031,7 +1859,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>II Seminário Negras e Negros no Ceará: Rebelião dos Jangadeiros 110 Anos promovido pelo Grupo de Estudos Discurso, Identidades, Raça e Gênero (GEDIRG-UECE). Universidade Estadual do Ceará. 2021. (Seminário).</t>
+          <t>Minicurso - China em perspectiva: transformações contemporâneas de uma potência mundial, ofertado pelo projeto de extensão Diálogos Sem Barreiras, do Núcleo Interdisciplinar de Estudos sobre África, Ásia e relações Sul-Sul (NiEAAS - UFRJ). 2021. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -2046,7 +1874,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>I Seminário de Pesquisa do PPGHISPAM: Programa de Pós-Graduação em História das Populações Amazônicas. UFT - Universidade Federal do Tocantins (Remoto). 2021. (Seminário).</t>
+          <t>Minicurso - Cinema como fonte histórica: caminhos entre o local e o global. Faculdade de História UEMG Divinópolis. 2021. (Oficina).</t>
         </is>
       </c>
     </row>
@@ -2061,7 +1889,8 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>I Seminário do Centro de Estudos Asiáticos (CEA/UFF): 3 Anos Pesquisando a Ásia desde o Brasil. Universidade Federal Fluminense. 2021. (Seminário).</t>
+          <t>Minicurso - História Antiga e o cotidiano da cidade do Rio de Janeiro: ensino, extensão e História Pública" XXI Jornada de História Antiga Laboratório de História Antiga (LHIA UFRJ).
+						2021. (Encontro).</t>
         </is>
       </c>
     </row>
@@ -2076,7 +1905,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>IV Seminário Internacional História do Tempo Presente:Programa de Pós Graduação em História (PPGH/FAED) da Universidade do Estado de Santa Catarina (UDESC). 2021. (Seminário).</t>
+          <t>Minicurso - Passados Presentes: memória da escravidão no Brasil e ensino de História NUPEHC Núcleo de Pesquisa em História Cultural Instituto de História- Universidade Federal Fluminense. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
@@ -2091,7 +1920,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Minicurso - A lei 10.639/2003 da obrigatoriedade do ensino da história e cultura afro-brasileira e africana: possibilidades e desafios após 17 anos. Faculdade de História UEMG Divinópolis. 2021. (Oficina).</t>
+          <t>Oficina Histórias do Valongo: Dos tempos do imperador, até os dias de hoje. Novos Instituto de Pesquisa e Memória Pretos Novos. Rio de Janeiro.. 2021. (Oficina).</t>
         </is>
       </c>
     </row>
@@ -2106,7 +1935,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Minicurso - China em perspectiva: transformações contemporâneas de uma potência mundial, ofertado pelo projeto de extensão Diálogos Sem Barreiras, do Núcleo Interdisciplinar de Estudos sobre África, Ásia e relações Sul-Sul (NiEAAS - UFRJ). 2021. (Congresso).</t>
+          <t>Oficina Pesquisa Arqueológica no Cemitério dos Pretos Novos. Instituto de Pesquisa e Memória Pretos Novos. Rio de Janeiro.. 2021. (Oficina).</t>
         </is>
       </c>
     </row>
@@ -2121,7 +1950,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Minicurso - Cinema como fonte histórica: caminhos entre o local e o global. Faculdade de História UEMG Divinópolis. 2021. (Oficina).</t>
+          <t>Oficina Voltando para a África: retornos de libertos no Brasil do século XIX. Instituto de Pesquisa e Memória Pretos Novos. Rio de Janeiro.. 2021. (Oficina).</t>
         </is>
       </c>
     </row>
@@ -2136,8 +1965,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Minicurso - História Antiga e o cotidiano da cidade do Rio de Janeiro: ensino, extensão e História Pública" XXI Jornada de História Antiga Laboratório de História Antiga (LHIA UFRJ).
-						2021. (Encontro).</t>
+          <t>VI Seminário de Estudos da informação (PPGCI/UFF): o aporte da Ciência da Informação para avaliação e inovação em Ciências Sociais e Humanidades. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
@@ -2152,7 +1980,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Minicurso - Passados Presentes: memória da escravidão no Brasil e ensino de História NUPEHC Núcleo de Pesquisa em História Cultural Instituto de História- Universidade Federal Fluminense. 2021. (Seminário).</t>
+          <t>Workshop - Cultura material nos arquivos e museus do Brasil e de Goa (FLUC) Faculdade de Letras. Universidade de Coimbra. 2021. (Oficina).</t>
         </is>
       </c>
     </row>
@@ -2167,120 +1995,120 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Oficina Histórias do Valongo: Dos tempos do imperador, até os dias de hoje. Novos Instituto de Pesquisa e Memória Pretos Novos. Rio de Janeiro.. 2021. (Oficina).</t>
+          <t>XVIII Seminário Internacional Archai: Novas Agendas para os Estudos Clássicos: Raça e Ecologia UNB E UNESCO. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Amaro Jose de Souza Neto</t>
+          <t>Ana Beatriz Ferreira Marques</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Oficina Pesquisa Arqueológica no Cemitério dos Pretos Novos. Instituto de Pesquisa e Memória Pretos Novos. Rio de Janeiro.. 2021. (Oficina).</t>
+          <t>Encontro de Pesquisa: História Política e Extrema Direita.O fim do homem soviético? Evocações do(s) passado(s) por Vladimir Putin.
+						2023. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Amaro Jose de Souza Neto</t>
+          <t>Ana Beatriz Ferreira Marques</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Oficina Voltando para a África: retornos de libertos no Brasil do século XIX. Instituto de Pesquisa e Memória Pretos Novos. Rio de Janeiro.. 2021. (Oficina).</t>
+          <t>Jornada de Estudos Históricos Professor Manoel Salgado.A dupla revolução: um estudo das representações do passado no cinema de Sergei Eisenstein. 2023. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Amaro Jose de Souza Neto</t>
+          <t>Ana Beatriz Ferreira Marques</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>VI Seminário de Estudos da informação (PPGCI/UFF): o aporte da Ciência da Informação para avaliação e inovação em Ciências Sociais e Humanidades. 2021. (Seminário).</t>
+          <t>Semana de História Política da UERJ.Cinema e revolução: uma análise das representações do passado nos filme de Eisenstein. 2023. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Amaro Jose de Souza Neto</t>
+          <t>Ana Beatriz Ferreira Marques</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Workshop - Cultura material nos arquivos e museus do Brasil e de Goa (FLUC) Faculdade de Letras. Universidade de Coimbra. 2021. (Oficina).</t>
+          <t>VI Colóquio Internacional de Cinema e História. A dupla revolução:uma análise das representações do passado nos filmes Outubro (1927) e O velho e o novo (1929), de Sergei Eisenstein. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Amaro Jose de Souza Neto</t>
+          <t>Augusto Cesar Oliveira Martins</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>XVIII Seminário Internacional Archai: Novas Agendas para os Estudos Clássicos: Raça e Ecologia UNB E UNESCO. 2021. (Seminário).</t>
+          <t>Curso Básico de Arbitragem. 2024. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Amaro Jose de Souza Neto</t>
+          <t>Augusto Cesar Oliveira Martins</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>NETO, A. J. S.. I Seminário Discente de Ensino e Pesquisa em História - UFOP (I SEDEPH/PPGHIS/UFOP). 2021. (Congresso).</t>
+          <t>Curso de Férias de Disputas Societárias. 2024. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Ana Beatriz Ferreira Marques</t>
+          <t>Augusto Cesar Oliveira Martins</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Encontro de Pesquisa: História Política e Extrema Direita.O fim do homem soviético? Evocações do(s) passado(s) por Vladimir Putin.
-						2023. (Encontro).</t>
+          <t>Curso de Férias em Arbitragem do CJA/CBMA - Edição Natalina. 2024. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Ana Beatriz Ferreira Marques</t>
+          <t>Augusto Cesar Oliveira Martins</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -2288,14 +2116,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Jornada de Estudos Históricos Professor Manoel Salgado.A dupla revolução: um estudo das representações do passado no cinema de Sergei Eisenstein. 2023. (Outra).</t>
+          <t>Homo bolsonarus e o limite da destruição. 2023. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Ana Beatriz Ferreira Marques</t>
+          <t>Augusto Cesar Oliveira Martins</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -2303,14 +2131,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Semana de História Política da UERJ.Cinema e revolução: uma análise das representações do passado nos filme de Eisenstein. 2023. (Outra).</t>
+          <t>I Arbitration Day. 2023. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Ana Beatriz Ferreira Marques</t>
+          <t>Augusto Cesar Oliveira Martins</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2318,7 +2146,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>VI Colóquio Internacional de Cinema e História. A dupla revolução:uma análise das representações do passado nos filmes Outubro (1927) e O velho e o novo (1929), de Sergei Eisenstein. 2023. (Congresso).</t>
+          <t>Mediação e Arbitragem: como usar?. 2023. (Outra).</t>
         </is>
       </c>
     </row>
@@ -2329,11 +2157,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Curso Básico de Arbitragem. 2024. (Outra).</t>
+          <t>V Congresso Internacional CBMA de Mediação. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -2344,11 +2172,11 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Curso de Férias de Disputas Societárias. 2024. (Outra).</t>
+          <t>Venerando la tradición, despreciando la historicidad: la guerra contra Ucrania. 2023. (Outra).</t>
         </is>
       </c>
     </row>
@@ -2359,11 +2187,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Curso de Férias em Arbitragem do CJA/CBMA - Edição Natalina. 2024. (Outra).</t>
+          <t>VI Congresso Internacional CBMA de Arbitragem. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -2378,7 +2206,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Homo bolsonarus e o limite da destruição. 2023. (Outra).</t>
+          <t>Where radicalisms meet and part away: Fascism, Nazism and Bolshevism as Social History. 2023. (Outra).</t>
         </is>
       </c>
     </row>
@@ -2389,18 +2217,18 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>I Arbitration Day. 2023. (Outra).</t>
+          <t>Congresso Internacional em Comemoração aos 30 Anos do MERCOSUL e aos 22 Anos do NEADI. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Augusto Cesar Oliveira Martins</t>
+          <t>Danielle Freire da Silva</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -2408,14 +2236,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Mediação e Arbitragem: como usar?. 2023. (Outra).</t>
+          <t>Jornada de Estudos Históricos professor Manoel Salgado - Edição 2023.As ocupações de terras e corridas de cercos mapuche no governo Salvador Allende (1970-1973). 2023. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Augusto Cesar Oliveira Martins</t>
+          <t>Danielle Freire da Silva</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2423,14 +2251,14 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>V Congresso Internacional CBMA de Mediação. 2023. (Congresso).</t>
+          <t>Seminário de História Oral, Memória e Violência Política no Mundo Contemporâneo.As mobilizações mapuches na Revista Punto Final (1970-1973). 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Augusto Cesar Oliveira Martins</t>
+          <t>Danielle Freire da Silva</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -2438,14 +2266,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Venerando la tradición, despreciando la historicidad: la guerra contra Ucrania. 2023. (Outra).</t>
+          <t>Seminário internacional 50 anos do golpe no Chile: perspectivas histórias e desafios atuais.As mobilizações indígenas na imprensa meridional: visões e representações dos mapuches no governo Salvador Allende (1970-1973). 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Augusto Cesar Oliveira Martins</t>
+          <t>Danielle Freire da Silva</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -2453,149 +2281,150 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>VI Congresso Internacional CBMA de Arbitragem. 2023. (Congresso).</t>
+          <t>XVII Semana de História Política.A historiografia subalterna dos historiadores mapuche: uma análise crítica do livro ¡?Escucha, Winka?! Cuatro Ensayos de Historia Nacional Mapuche y un epílogo sobre el futuro. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Augusto Cesar Oliveira Martins</t>
+          <t>Danielle Freire da Silva</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Where radicalisms meet and part away: Fascism, Nazism and Bolshevism as Social History. 2023. (Outra).</t>
+          <t>XVI Semana de História Política: De(s)colonizar a História: feminismos, resistências e interseccionalidade / XIII Seminário Nacional de História: Política, Cultura e Sociedade.A mobilização social mapuche nos anos da via chilena ao socialismo (1970-1973): uma leitura a partir dos jornais de esquerda. 2022. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Augusto Cesar Oliveira Martins</t>
+          <t>Felipe José Souza Fernandes da Silva</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Congresso Internacional em Comemoração aos 30 Anos do MERCOSUL e aos 22 Anos do NEADI. 2021. (Congresso).</t>
+          <t>Seminário Nacional História e Ficção: as formas do (des)encontro.O Romance de Formação na obra de Machado de Assis. 2024. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Beatriz Weisheimer de Mendonça</t>
+          <t>Felipe José Souza Fernandes da Silva</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Isabele de Matos Pereira de Mello;SAMPAIO, A. C. J.; M.  ; FRAGOSO, João ; FERREIRA, R. G. ; CONCEICAO, H. ; ALMEIDA, Carla M. ;MENDONÇA, B. W.;ALMEIDA, J. R.. Seminário Internacional Antigo Regime nos Trópicos - 20 Anos. 2021. (Outro).</t>
+          <t>12ª Semana de Integração Acadêmica da UFRJ.Memórias Póstumas de Brás Cubas como Romance de Formação. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Beatriz Weisheimer de Mendonça</t>
+          <t>Felipe José Souza Fernandes da Silva</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Isabele de Matos Pereira de Mello; FRAGOSO, João ;SAMPAIO, A. C. J.; M.  ; FERREIRA, R. G. ; CONCEICAO, H. ; ALMEIDA, Carla M. ;ALMEIDA, J. R.;MENDONÇA, B. W.. ART EM TESES: NOVAS PESQUISAS.. 2021. (Outro).</t>
+          <t>Jornada de Estudos Históricos Professor Manoel Salgado.O Romance de Formação na obra de Machado de Assis. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Danielle Freire da Silva</t>
+          <t>Felipe José Souza Fernandes da Silva</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Jornada de Estudos Históricos professor Manoel Salgado - Edição 2023.As ocupações de terras e corridas de cercos mapuche no governo Salvador Allende (1970-1973). 2023. (Outra).</t>
+          <t>11ª Semana de Integração Acadêmica da UFRJ.A Ideia de Formação em Memórias Póstumas de Brás Cubas. 2022. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Danielle Freire da Silva</t>
+          <t>Felipe José Souza Fernandes da Silva</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Seminário de História Oral, Memória e Violência Política no Mundo Contemporâneo.As mobilizações mapuches na Revista Punto Final (1970-1973). 2023. (Seminário).</t>
+          <t>42ª Jornada Giulio Massarani de Iniciação Científica tecnológica Artística e Cultural.A Historicidade no Romance de Formação. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Danielle Freire da Silva</t>
+          <t>Fernanda Silva Monteiro Pinto</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Seminário internacional 50 anos do golpe no Chile: perspectivas histórias e desafios atuais.As mobilizações indígenas na imprensa meridional: visões e representações dos mapuches no governo Salvador Allende (1970-1973). 2023. (Seminário).</t>
+          <t>PRIMER CONGRESO DEL GEI ROUSSEAU: Rousseau y el siglo XVIII: Diálogos Iberoamericanos. ideia de formação presente em Emílio ou Da Educação (1762) de Jean-Jacques Rousseau. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Danielle Freire da Silva</t>
+          <t>Fernanda Silva Monteiro Pinto</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>XVII Semana de História Política.A historiografia subalterna dos historiadores mapuche: uma análise crítica do livro ¡?Escucha, Winka?! Cuatro Ensayos de Historia Nacional Mapuche y un epílogo sobre el futuro. 2023. (Seminário).</t>
+          <t>Seminário Nacional História e Ficção: as formas do (des)encontro.Romance de Formação. 2024. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Danielle Freire da Silva</t>
+          <t>Fernanda Silva Monteiro Pinto</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>XVI Semana de História Política: De(s)colonizar a História: feminismos, resistências e interseccionalidade / XIII Seminário Nacional de História: Política, Cultura e Sociedade.A mobilização social mapuche nos anos da via chilena ao socialismo (1970-1973): uma leitura a partir dos jornais de esquerda. 2022. (Seminário).</t>
+          <t>XIII Encuentro Regional ?Los museos y el desarrollo sostenible?.Museu Nacional: educación museal en encuentros con la comunidad en el parque Quinta da  Boa vista.
+						2024. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Danielle Freire da Silva</t>
+          <t>Fernanda Silva Monteiro Pinto</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -2603,165 +2432,168 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ARAÚJO, MARIA PAULA NASCIMENTO ;DA SILVA, DANIELLE FREIRE; SILVA, LAYS CORREA ; GEROMEL, B. ; MANGUEIRA, B. ; MAROJA, R. . Seminário de História Oral, Memória e Violência Política no Mundo Contemporâneo. 2023. (Outro).</t>
+          <t>IV Congresso de Estudos da Infância: poiesis e utopias. O cultivo da infância e o devir do homem autogovernado: o lugar da criança no processo formativo do homem idealizado por Rousseau, Locke e Montaigne. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Danielle Freire da Silva</t>
+          <t>Fernanda Silva Monteiro Pinto</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SILVA, D. F.; ROSARIO, L. S. ; FARIA, T. B. ; BARBOSA, D. S. ; MEDINA, I. S. L. ; Alexia Rosa . Jornada de Estudos Históricos Professor Manoel Salgado - Edição 2023. 2023. (Outro).</t>
+          <t>11ª Semana de Integração Acadêmica da UFRJ.PARTILHANDO MEMÓRIAS E CONSTRUINDO HISTÓRIAS: COMO A ESCOLA SE FAZ PRESENTE NA IDENTIDADE FLUMINENSE. 2022. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Felipe José Souza Fernandes da Silva</t>
+          <t>Fernanda Silva Monteiro Pinto</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Seminário Nacional História e Ficção: as formas do (des)encontro.O Romance de Formação na obra de Machado de Assis. 2024. (Seminário).</t>
+          <t>11ª Semana de Integração Acadêmica da UFRJ.?As abelhas e nós: o cultivo de uma relação sustentável?, uma experiência síncrona de mediação museal online com estudantes do Ensino Fundamental. 2022. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Felipe José Souza Fernandes da Silva</t>
+          <t>Fernanda Silva Monteiro Pinto</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>12ª Semana de Integração Acadêmica da UFRJ.Memórias Póstumas de Brás Cubas como Romance de Formação. 2023. (Seminário).</t>
+          <t>XVI Encontro Nacional de História Oral - Pandemia e Futuros Possíveis..Sua Escola Tem História: Narrativa de Professores.
+						2022. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Felipe José Souza Fernandes da Silva</t>
+          <t>Fernanda Silva Monteiro Pinto</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Jornada de Estudos Históricos Professor Manoel Salgado.O Romance de Formação na obra de Machado de Assis. 2023. (Seminário).</t>
+          <t>Festival do Conhecimento UFRJ - Futuros Possíveis.Sua Escola Tem História: um lugar às memórias escolares. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Felipe José Souza Fernandes da Silva</t>
+          <t>Gabriel Camejo Sampaio</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>11ª Semana de Integração Acadêmica da UFRJ.A Ideia de Formação em Memórias Póstumas de Brás Cubas. 2022. (Seminário).</t>
+          <t>Encontro de Pesquisas Históricas (EPHIS) História na Era Digital.A Relação entre Literatura de Horror e o Discurso de Legitimação Imperial.
+						2023. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Felipe José Souza Fernandes da Silva</t>
+          <t>Inghrid da Costa Masullo Mendes</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>42ª Jornada Giulio Massarani de Iniciação Científica tecnológica Artística e Cultural.A Historicidade no Romance de Formação. 2021. (Seminário).</t>
+          <t>Imagens visuais anticomunistas: das representações tradicionais ao contexto bolsonarista. 2023. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Fernanda Silva Monteiro Pinto</t>
+          <t>Inghrid da Costa Masullo Mendes</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>PRIMER CONGRESO DEL GEI ROUSSEAU: Rousseau y el siglo XVIII: Diálogos Iberoamericanos. ideia de formação presente em Emílio ou Da Educação (1762) de Jean-Jacques Rousseau. 2024. (Congresso).</t>
+          <t>ISRAEL COMO MODELO CULTURAL: Imaginários e Usos na nova extrema-direita. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Fernanda Silva Monteiro Pinto</t>
+          <t>Inghrid da Costa Masullo Mendes</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Seminário Nacional História e Ficção: as formas do (des)encontro.Romance de Formação. 2024. (Seminário).</t>
+          <t>Memória, Movimentos Sociais e Acervos digitais. 2023. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Fernanda Silva Monteiro Pinto</t>
+          <t>Inghrid da Costa Masullo Mendes</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>XIII Encuentro Regional ?Los museos y el desarrollo sostenible?.Museu Nacional: educación museal en encuentros con la comunidad en el parque Quinta da  Boa vista.
-						2024. (Encontro).</t>
+          <t>Primeras Jornadas de Tesistas en Historia social del trabajo, trabajadores/as y movimiento obrero y sindical en los siglos XX y XXI.?¡¿QUIÉN PODRÁ SABER QUE TANTOS COMUNISTAS PODRÍAN AMONTONARSE ALLÍ?!?: EL PCB EN PIAUÍ Y LOS TRAYECTOS DE LOS TRABAJADORES MILITANTES EN LA CIUDAD DE PARNAÍBA-PI (1935-1964).
+						2023. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Fernanda Silva Monteiro Pinto</t>
+          <t>Inghrid da Costa Masullo Mendes</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>IV Congresso de Estudos da Infância: poiesis e utopias. O cultivo da infância e o devir do homem autogovernado: o lugar da criança no processo formativo do homem idealizado por Rousseau, Locke e Montaigne. 2023. (Congresso).</t>
+          <t>Encontro Estadual de História ?O BICENTENÁRIO DE INDEPENDÊNCIA DO BRASIL: MEMÓRIAS, NARRATIVAS E HISTORIOGRAFIAS?.ANTÔNIO PINTOR, PERNAMBUCANO E COMUNISTA: TRABALHADORES E REPRESSÃO POLITICA EM PARNAIBA - PI (1950 - 1960).
+						2022. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Fernanda Silva Monteiro Pinto</t>
+          <t>Inghrid da Costa Masullo Mendes</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -2769,45 +2601,45 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>11ª Semana de Integração Acadêmica da UFRJ.PARTILHANDO MEMÓRIAS E CONSTRUINDO HISTÓRIAS: COMO A ESCOLA SE FAZ PRESENTE NA IDENTIDADE FLUMINENSE. 2022. (Outra).</t>
+          <t>V Semana de História e I Simpósio Regional do PROFHISTÓRIA ? UESPI: Ensino de História e Direitos Humanos..SUBVERSIVOS: Os inquéritos policiais militares como fontes para a historiografia piauiense (1935-1964).
+						2022. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Fernanda Silva Monteiro Pinto</t>
+          <t>Isadora Silva Gomes</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>11ª Semana de Integração Acadêmica da UFRJ.?As abelhas e nós: o cultivo de uma relação sustentável?, uma experiência síncrona de mediação museal online com estudantes do Ensino Fundamental. 2022. (Outra).</t>
+          <t>10 anos da Lei da Comissão Nacional da Verdade. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Fernanda Silva Monteiro Pinto</t>
+          <t>Isadora Silva Gomes</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>XVI Encontro Nacional de História Oral - Pandemia e Futuros Possíveis..Sua Escola Tem História: Narrativa de Professores.
-						2022. (Encontro).</t>
+          <t>8º Seminário de Pesquisadores do PPGArtes UERJ. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Fernanda Silva Monteiro Pinto</t>
+          <t>Isadora Silva Gomes</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -2815,138 +2647,134 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Festival do Conhecimento UFRJ - Futuros Possíveis.Sua Escola Tem História: um lugar às memórias escolares. 2021. (Outra).</t>
+          <t>Conversas Políticas e Culturais sobre América Latina. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Gabriel Camejo Sampaio</t>
+          <t>Isadora Silva Gomes</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Encontro de Pesquisas Históricas (EPHIS) História na Era Digital.A Relação entre Literatura de Horror e o Discurso de Legitimação Imperial.
-						2023. (Simpósio).</t>
+          <t>Ignorance of Politics and the Politics of Ignorance. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Inghrid da Costa Masullo Mendes</t>
+          <t>Isadora Silva Gomes</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Imagens visuais anticomunistas: das representações tradicionais ao contexto bolsonarista. 2023. (Outra).</t>
+          <t>LAHPS Debate - Lugares de memória: As presenças e silêncios das ditaduras nos espaços urbanos. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Inghrid da Costa Masullo Mendes</t>
+          <t>Isadora Silva Gomes</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>ISRAEL COMO MODELO CULTURAL: Imaginários e Usos na nova extrema-direita. 2023. (Seminário).</t>
+          <t>Seminário Lugares de Memória. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Inghrid da Costa Masullo Mendes</t>
+          <t>Isadora Silva Gomes</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Memória, Movimentos Sociais e Acervos digitais. 2023. (Outra).</t>
+          <t>XLII Jornada Giulio Massarani de Iniciação Científica, Tecnológica, Artística e Cultural (JICTAC 2020 Edição Especial). 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Inghrid da Costa Masullo Mendes</t>
+          <t>Isis Saraiva Leão Medina</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Primeras Jornadas de Tesistas en Historia social del trabajo, trabajadores/as y movimiento obrero y sindical en los siglos XX y XXI.?¡¿QUIÉN PODRÁ SABER QUE TANTOS COMUNISTAS PODRÍAN AMONTONARSE ALLÍ?!?: EL PCB EN PIAUÍ Y LOS TRAYECTOS DE LOS TRABAJADORES MILITANTES EN LA CIUDAD DE PARNAÍBA-PI (1935-1964).
-						2023. (Simpósio).</t>
+          <t>17º Colóquio de Moda. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Inghrid da Costa Masullo Mendes</t>
+          <t>Isis Saraiva Leão Medina</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Encontro Estadual de História ?O BICENTENÁRIO DE INDEPENDÊNCIA DO BRASIL: MEMÓRIAS, NARRATIVAS E HISTORIOGRAFIAS?.ANTÔNIO PINTOR, PERNAMBUCANO E COMUNISTA: TRABALHADORES E REPRESSÃO POLITICA EM PARNAIBA - PI (1950 - 1960).
-						2022. (Simpósio).</t>
+          <t>"E eu não sou uma mulher?": diálogos sobre feminismo negro. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Inghrid da Costa Masullo Mendes</t>
+          <t>Isis Saraiva Leão Medina</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>V Semana de História e I Simpósio Regional do PROFHISTÓRIA ? UESPI: Ensino de História e Direitos Humanos..SUBVERSIVOS: Os inquéritos policiais militares como fontes para a historiografia piauiense (1935-1964).
-						2022. (Simpósio).</t>
+          <t>16º Colóquio de Moda. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Inghrid da Costa Masullo Mendes</t>
+          <t>Isis Saraiva Leão Medina</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>MENDES, Inghrid C. Masullo. Jornada  de Estudos Históricos Professor Manoel Salgado ? Edição 2023. 2023. (Congresso).</t>
+          <t>7ª Edição do Congresso de Iniciação Científica em Design e Moda. Indumentárias negras: análise de retratos de mulheres negras em Debret e Marc Ferrez. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Isadora Silva Gomes</t>
+          <t>Isis Saraiva Leão Medina</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -2954,14 +2782,14 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>10 anos da Lei da Comissão Nacional da Verdade. 2021. (Outra).</t>
+          <t>A vida como obra de arte. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Isadora Silva Gomes</t>
+          <t>Isis Saraiva Leão Medina</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -2969,14 +2797,15 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>8º Seminário de Pesquisadores do PPGArtes UERJ. 2021. (Seminário).</t>
+          <t>Humanidades Encantadas ? a afirmação da vida e do sonho no pensamento contemporâneo,.
+						2021. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Isadora Silva Gomes</t>
+          <t>Isis Saraiva Leão Medina</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -2984,14 +2813,14 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Conversas Políticas e Culturais sobre América Latina. 2021. (Outra).</t>
+          <t>Indumentária no Egito Antigo: abordagens e oficina de ensino de história. 2021. (Oficina).</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Isadora Silva Gomes</t>
+          <t>Isis Saraiva Leão Medina</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -2999,74 +2828,75 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Ignorance of Politics and the Politics of Ignorance. 2021. (Outra).</t>
+          <t>XVII Encontro de Estudos Multidisciplinares em Cultura - ENECULT.
+						2021. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Isadora Silva Gomes</t>
+          <t>João Pedro Teixeira Ferreira Thimoteo</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>LAHPS Debate - Lugares de memória: As presenças e silêncios das ditaduras nos espaços urbanos. 2021. (Outra).</t>
+          <t>Collage histórico-cultural brasileño.O Partido dos Trabalhadores e o processo de transição da ditadura no Brasil.. 2023. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Isadora Silva Gomes</t>
+          <t>João Pedro Teixeira Ferreira Thimoteo</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Seminário Lugares de Memória. 2021. (Seminário).</t>
+          <t>Colóquio Internacional Marx e o Marxismo 2023: Democracia contra capitalismo? Renovando o materialismo histórico. 2023. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Isadora Silva Gomes</t>
+          <t>João Pedro Teixeira Ferreira Thimoteo</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>XLII Jornada Giulio Massarani de Iniciação Científica, Tecnológica, Artística e Cultural (JICTAC 2020 Edição Especial). 2021. (Outra).</t>
+          <t>O Golpe de Estado no Brasil em 2016: uma análise a partir do conflito de classes. 2023. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Isadora Silva Gomes</t>
+          <t>João Pedro Teixeira Ferreira Thimoteo</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>MAIA, A. C. N ; HOLLANDA, Bernardo Borges Buarque de ; SANTHIAGO, Ricardo ; COELHO, Bruna A. G. ;GOMES, I. S.. XVI Encontro Nacional de História Oral. 2022. (Outro).</t>
+          <t>Conversas Políticas e Culturais sobre América Latina: das experiências democráticas à ascensão autoritária. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Isadora Silva Gomes</t>
+          <t>João Pedro Teixeira Ferreira Thimoteo</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -3074,14 +2904,14 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>ARAUJO, M. P. ; SILVA, I. P. P. ; SILVA, L. C. ; EUGENIO, A. S. ;GOMES, I. S.; PINTO, S. A. . Seminário Internacional "45 anos do Golpe e da ditadura na Argentina: História, Memória e Diálogos com o Brasil". 2021. (Outro).</t>
+          <t>Estado e Democracia: Uma introdução o estudo da política. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Isadora Silva Gomes</t>
+          <t>João Pedro Teixeira Ferreira Thimoteo</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -3089,29 +2919,29 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>ARAUJO, M. P. ; SILVA, I. P. P. ; EUGENIO, A. S. ; PINTO, S. A. ;GOMES, I. S.; SILVA, L. C. . História Oral, Memória e experiência na luta por direitos. 2021. (Outro).</t>
+          <t>Seminário Internacional ?45 anos do golpe e da ditadura na Argentina: História, memória e diálogos com oBrasil?. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Isis Saraiva Leão Medina</t>
+          <t>João Pedro Teixeira Ferreira Thimoteo</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>17º Colóquio de Moda. 2022. (Congresso).</t>
+          <t>XLII Jornada Giulio Massarani de Iniciação Científica, Tecnológica, Artística e Cultural (JICTAC 2020 - Edição Especial). 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Isis Saraiva Leão Medina</t>
+          <t>Juliana Batista</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -3119,14 +2949,15 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>"E eu não sou uma mulher?": diálogos sobre feminismo negro. 2021. (Outra).</t>
+          <t>3º Encontro Internacional História &amp; Parcerias e 7º Seminário Fluminense de Pós-Graduandos em História.A pia batismal: uma possibilidade de liberdade na freguesia de Nossa Senhora da Piedade de Iguaçu 1750-1815.
+						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Isis Saraiva Leão Medina</t>
+          <t>Juliana Batista</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -3134,14 +2965,14 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>16º Colóquio de Moda. 2021. (Congresso).</t>
+          <t>Conferência ?Formas de ser forro (Luanda, Rio de Janeiro e São Paulo, séculos XVII-XVIII)?. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Isis Saraiva Leão Medina</t>
+          <t>Juliana Batista</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -3149,14 +2980,14 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>7ª Edição do Congresso de Iniciação Científica em Design e Moda. Indumentárias negras: análise de retratos de mulheres negras em Debret e Marc Ferrez. 2021. (Congresso).</t>
+          <t>Mesa-redonda: De escravo a senhor - trajetórias (séculos XVII-XIX).. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Isis Saraiva Leão Medina</t>
+          <t>Juliana Batista</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -3164,30 +2995,29 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>A vida como obra de arte. 2021. (Outra).</t>
+          <t>Seminário Internacional Antigo Regime nos Trópicos: 20 anos de O Antigo Regime nos Trópicos. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Isis Saraiva Leão Medina</t>
+          <t>Larissa de Oliveira Farias</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Humanidades Encantadas ? a afirmação da vida e do sonho no pensamento contemporâneo,.
-						2021. (Encontro).</t>
+          <t>11º Semana de Integração Acadêmica da UFRJ. A Greve de 1962 na Baixada Fluminense. 2022. (Exposição).</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Isis Saraiva Leão Medina</t>
+          <t>Larissa de Oliveira Farias</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -3195,14 +3025,14 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Indumentária no Egito Antigo: abordagens e oficina de ensino de história. 2021. (Oficina).</t>
+          <t>2º Curso de Introdução à História Pública. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Isis Saraiva Leão Medina</t>
+          <t>Larissa de Oliveira Farias</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -3210,45 +3040,45 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>XVII Encontro de Estudos Multidisciplinares em Cultura - ENECULT.
-						2021. (Encontro).</t>
+          <t>Oficina sobre a plataforma OMEKA. 2021. (Oficina).</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Isis Saraiva Leão Medina</t>
+          <t>Lenilson Nóbrega da Silva de Oliveira</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>MENDES, F. R. N.;MEDINA, I. S. L.. X Semana Acadêmica de Moda (X SAM) - Analógico x Digital: dualidades na moda. 2021. (Outro).</t>
+          <t>21° Encontro de História da Anpuh- Rio - História, Democracia, Igualdade de Diversidade.A escravidão urbana a partir de um estudo de caso: os Africanos Ocidentais de Vicente Pereira da Silva Porto na cidade do Rio de Janeiro, século XIX.
+						2024. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Isis Saraiva Leão Medina</t>
+          <t>Lenilson Nóbrega da Silva de Oliveira</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>MEDINA, I. S. L.;MENDES, F. R. N.. Oficina de Criação de Artigo. 2021. (Outro).</t>
+          <t>The ALARI 3rd Continental Conference on Afro-Latin American Studies. Escravidão Urbana, Etnia e Trabalho: os escravizados de Vicente Porto na cidade do Rio de Janeiro, século XIX. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>João Pedro Teixeira Ferreira Thimoteo</t>
+          <t>Luana Camila Da Silva Rosario</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -3256,14 +3086,14 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Collage histórico-cultural brasileño.O Partido dos Trabalhadores e o processo de transição da ditadura no Brasil.. 2023. (Outra).</t>
+          <t>80 ANOS DA CLT:PASSADO, PRESENTE E FUTURO DAS RELAÇÕES DE TRABALHO NO BRASIL. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>João Pedro Teixeira Ferreira Thimoteo</t>
+          <t>Luana Camila Da Silva Rosario</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -3271,44 +3101,45 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Colóquio Internacional Marx e o Marxismo 2023: Democracia contra capitalismo? Renovando o materialismo histórico. 2023. (Outra).</t>
+          <t>Primeras Jornadas de Tesistas en Historia social del trabajo, trabajadores/as y movimiento obrero y sindical en los siglos XX y XXI.¿Una realidad reconfortante? El petróleo brota a borbotones en la Amazonia brasileña: la llegada de Petrobras a la Amazonia y la constitución de la mano de obra (1955-1964). 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>João Pedro Teixeira Ferreira Thimoteo</t>
+          <t>Luana Camila Da Silva Rosario</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>O Golpe de Estado no Brasil em 2016: uma análise a partir do conflito de classes. 2023. (Outra).</t>
+          <t>Lançamento da exposição "Quem são os Brasileiros?". 2022. (Exposição).</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>João Pedro Teixeira Ferreira Thimoteo</t>
+          <t>Luana Camila Da Silva Rosario</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Conversas Políticas e Culturais sobre América Latina: das experiências democráticas à ascensão autoritária. 2021. (Outra).</t>
+          <t>XVI Encontro Nacional de História Oral.
+						2022. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>João Pedro Teixeira Ferreira Thimoteo</t>
+          <t>Luana Camila Da Silva Rosario</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -3316,14 +3147,14 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Estado e Democracia: Uma introdução o estudo da política. 2021. (Outra).</t>
+          <t>Introdução ao Audiovisual Modulo V- Introdução à crítica de Cinema. 2021. (Oficina).</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>João Pedro Teixeira Ferreira Thimoteo</t>
+          <t>Luana Camila Da Silva Rosario</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -3331,14 +3162,14 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Seminário Internacional ?45 anos do golpe e da ditadura na Argentina: História, memória e diálogos com oBrasil?. 2021. (Seminário).</t>
+          <t>Oficina de Introdução ao Audiovisual- Introdução à Direção de Fotografia. 2021. (Oficina).</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>João Pedro Teixeira Ferreira Thimoteo</t>
+          <t>Luca Araujo de Oliveira Leite</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -3346,30 +3177,30 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>XLII Jornada Giulio Massarani de Iniciação Científica, Tecnológica, Artística e Cultural (JICTAC 2020 - Edição Especial). 2021. (Outra).</t>
+          <t>II Seminário de Integração.Tihimore das Mulheres Paresi-Haliti. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>João Pedro Teixeira Ferreira Thimoteo</t>
+          <t>Luca Araujo de Oliveira Leite</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>THIMOTEO, João Pedro. Economia, política e história: reconstruir as bases da interpretação marxista-revolucionária do mundo.. 2024; Tema:
-						Marxismo. (Blog).</t>
+          <t>II Simpósio Fluminense de Zoologia.
+						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Juliana Batista</t>
+          <t>Luca Araujo de Oliveira Leite</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -3377,7 +3208,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>3º Encontro Internacional História &amp; Parcerias e 7º Seminário Fluminense de Pós-Graduandos em História.A pia batismal: uma possibilidade de liberdade na freguesia de Nossa Senhora da Piedade de Iguaçu 1750-1815.
+          <t>Simpósio Ecologia Histórica e História Ambiental: diálogos possíveis e perspectivas futuras.
 						2021. (Simpósio).</t>
         </is>
       </c>
@@ -3385,7 +3216,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Juliana Batista</t>
+          <t>Luca Araujo de Oliveira Leite</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -3393,89 +3224,91 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Conferência ?Formas de ser forro (Luanda, Rio de Janeiro e São Paulo, séculos XVII-XVIII)?. 2021. (Outra).</t>
+          <t>VIII Encuentro Latinoamericano de Recreación y Ocio.ETNOESPORTE E GÊNERO ENTRE OS PARESI-HALITI.
+						2021. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Juliana Batista</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Mesa-redonda: De escravo a senhor - trajetórias (séculos XVII-XIX).. 2021. (Outra).</t>
+          <t>12º Seminário Memória, Documentação e Pesquisa.Os 60 anos do golpe e os impactos de 1964 na UFRJ. 2024. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Juliana Batista</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Seminário Internacional Antigo Regime nos Trópicos: 20 anos de O Antigo Regime nos Trópicos. 2021. (Seminário).</t>
+          <t>Festival do Conhecimento da UFRJ - Inteligência Artificial para o Sul Global.As exposições virtuais da Divisão de Memória Institucional como História Pública e divulgação científica.
+						2024. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Larissa de Oliveira Farias</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>11º Semana de Integração Acadêmica da UFRJ. A Greve de 1962 na Baixada Fluminense. 2022. (Exposição).</t>
+          <t>I Conferência Nacional Multidisciplinar Online. O papel do professor na abordagem do autoritarismo: ferramentas didáticas para a formação docente. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Larissa de Oliveira Farias</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2º Curso de Introdução à História Pública. 2021. (Outra).</t>
+          <t>I Congresso Nacional de Ciências Sociais e Humanas. O papel da Educação na promoção da inclusão social: um relato de experiência. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Larissa de Oliveira Farias</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Oficina sobre a plataforma OMEKA. 2021. (Oficina).</t>
+          <t>I Congresso Nacional de Educação para a Cidadania. Promovendo a diversidade por meio da prática docente: um relato de experiência. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Lenilson Nóbrega da Silva de Oliveira</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -3483,15 +3316,15 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>21° Encontro de História da Anpuh- Rio - História, Democracia, Igualdade de Diversidade.A escravidão urbana a partir de um estudo de caso: os Africanos Ocidentais de Vicente Pereira da Silva Porto na cidade do Rio de Janeiro, século XIX.
-						2024. (Simpósio).</t>
+          <t>I Encontro Discente do PPGH/UFPB.Os 60 anos do golpe de 1964 e os impactos na UFRJ: violência, repressão e memórias de resistência.
+						2024. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Lenilson Nóbrega da Silva de Oliveira</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -3499,228 +3332,227 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>The ALARI 3rd Continental Conference on Afro-Latin American Studies. Escravidão Urbana, Etnia e Trabalho: os escravizados de Vicente Porto na cidade do Rio de Janeiro, século XIX. 2024. (Congresso).</t>
+          <t>III Seminário Discente do PPGCS/UNISINOS.O intelectual, o militante, o homossexual: como o Brasil dos anos 1960 moldou a nova vida de Conrad Detrez (1937-1985)?. 2024. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Lenilson Nóbrega da Silva de Oliveira</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>OLIVEIRA, L. N. S.. Práticas da advocacia, gestão e rotina de escritórios. 2023. (Exposição).</t>
+          <t>I Jornada de Estudos em História e Literatura. Memórias que resistem ao trauma: a literatura de teor testemunhal como registro e denúncia da violência ditatorial na América Latina. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Luana Camila Da Silva Rosario</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>80 ANOS DA CLT:PASSADO, PRESENTE E FUTURO DAS RELAÇÕES DE TRABALHO NO BRASIL. 2023. (Seminário).</t>
+          <t>I Seminário Nacional Multidisciplinar em Pesquisa Científica.Memória como resistência: as Abuelas da Plaza de Mayo e a história como mestra da vida na Argentina. 2024. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Luana Camila Da Silva Rosario</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Primeras Jornadas de Tesistas en Historia social del trabajo, trabajadores/as y movimiento obrero y sindical en los siglos XX y XXI.¿Una realidad reconfortante? El petróleo brota a borbotones en la Amazonia brasileña: la llegada de Petrobras a la Amazonia y la constitución de la mano de obra (1955-1964). 2023. (Seminário).</t>
+          <t>IX Encontro de Pesquisa na Graduação em História.A primeira vida de Conrad Detrez (1937-1962): as influências da vivência católica em uma Liège rural para sua biografia.
+						2024. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Luana Camila Da Silva Rosario</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Lançamento da exposição "Quem são os Brasileiros?". 2022. (Exposição).</t>
+          <t>Seminário Internacional "Lembrar para não Repetir: a oposição intelectual portuguesa e brasileira às Ditaduras".Conrad Detrez em Brasil e Portugal: memória e legado de um intelectual transnacional. 2024. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Luana Camila Da Silva Rosario</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>XVI Encontro Nacional de História Oral.
-						2022. (Encontro).</t>
+          <t>V Colóquios de Políticas e Gestão da Educação. Pandemia, universidade e sociedade: um olhar sobre a Extensão Universitária a partir de um curso de extensão. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Luana Camila Da Silva Rosario</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Introdução ao Audiovisual Modulo V- Introdução à crítica de Cinema. 2021. (Oficina).</t>
+          <t>VII Encontro Discente de História do PPGH/UFRGS.Além do esquecimento, além do tempo: os silenciamentos presentes na trajetória de vida de Conrad Detrez (1937-1985).
+						2024. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Luana Camila Da Silva Rosario</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Oficina de Introdução ao Audiovisual- Introdução à Direção de Fotografia. 2021. (Oficina).</t>
+          <t>V Seminário Nacional de Sociologia.As exposições virtuais da Divisão de Memória Institucional (DMI/SiBI/UFRJ) e o papel das novas tecnologias na pesquisa acadêmica. 2024. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Luana Camila Da Silva Rosario</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ROSARIO, Luana; SILVA, D. F. ; CARDOSO, M. V. O. ; MENDES, I. C. M. ; FARIA, T. B. ; ROSA, A. ; MARTINS, L. I. ; GOMES, I. S. ; BARBOSA, D. S. ; PIRES, L. C. ; MEDINA, I. S. L. . Jornada de Estudos Históricos Professor Manoel Salgado. 2023. (Outro).</t>
+          <t>XLV Jornada Giulio Massarani de Iniciação Científica, Tecnológica, Artística e Cultural da UFRJ.Universidade, repressão e resistência: a trajetória de docentes cassados pela UFRJ durante a ditadura civil-militar (1964-1985). 2024. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Luana Camila Da Silva Rosario</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>MAIA, Andréa Casa Nova ;ROSARIO, Luana. XVI Encontro Nacional de História Oral: Pandemia e Futuros Possíveis (MONITOR). 2022. (Outro).</t>
+          <t>12ª Semana de Integração Acadêmica da UFRJ. Curso de Cuidadores da Terceira Idade: a articulação entre a Extensão Universitária e os mundos do trabalho; A UFRJ e a ditadura civil-militar (1964-1985): a trajetória dos professores cassados. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Luana Camila Da Silva Rosario</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>FARIAS, W. G. ; TERRIBAS, B. ; CARMO, J. ; DIAS, A. S. ; MACHADO, D. C. ; TRINDADE, J. L. ; LIMA, M. G. ;ROSARIO, Luana. Naqueles tempos... Memórias Petroleiras na Amazônia. 2021. (Exposição).</t>
+          <t>I Seminário Discente: Discurso, subjetividade e educação.Extensão e ensino remoto: um relato de experiência. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Luca Araujo de Oliveira Leite</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>II Seminário de Integração.Tihimore das Mulheres Paresi-Haliti. 2021. (Seminário).</t>
+          <t>I Simpósio Nacional de Ensino, Pesquisa e Extensão &amp; VI Simpósio de Ensino, Pesquisa e Extensão.Educação e cuidado em tempos de pandemia: um estudo de caso na extensão universitária. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Luca Araujo de Oliveira Leite</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>II Simpósio Fluminense de Zoologia.
-						2021. (Simpósio).</t>
+          <t>The Third International Conference on Creative Insubordination in Mathematics Education.Conexões e conversas: transgressões de profissionais da Educação. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Luca Araujo de Oliveira Leite</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Simpósio Ecologia Histórica e História Ambiental: diálogos possíveis e perspectivas futuras.
-						2021. (Simpósio).</t>
+          <t>X Encontro de Pesquisas Históricas.Entre a cruz e a resistência: a trajetória de Conrad Detrez no Brasil (1962-1967).
+						2023. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Luca Araujo de Oliveira Leite</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>VIII Encuentro Latinoamericano de Recreación y Ocio.ETNOESPORTE E GÊNERO ENTRE OS PARESI-HALITI.
-						2021. (Encontro).</t>
+          <t>XVII Semana de História Política &amp; XIV Seminário Nacional de História: Política, Cultura e Sociedade.Universidade e Ditadura: a trajetória dos docentes cassados pela UFRJ (1964-1985). 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Luca Araujo de Oliveira Leite</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -3728,14 +3560,14 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>LEITE, LUCA; SILVA, A. G. ; SALES, G. P. ; BARBOSA, N. A. ; COSTA, H. M. C. R. ; MOREIRA, P. F. ; ARAUJO, B. A. ; FARIAS, M. S. . III Encontro Virtual de Laboratórios de História Ambiental do Brasil. 2022. (Outro).</t>
+          <t>11ª Semana de Integração Acadêmica da UFRJ. Agroecologia, cidadania e defesa da terra: projeto "Centro de Cidadania da Praia Vermelha" e a potência da extensão no universo virtual; "Qualificação para o Cuidado de Crianças e Adolescentes": resistência e educação popular em tempos de pandemia. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Luca Araujo de Oliveira Leite</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -3743,7 +3575,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>LEITE, LUCA. ?Generosidade da Terra, Ingratidão dos Homens?: Conservação da Natureza no Brasil Império. 2022. (Curso de curta duração ministrado/Extensão).</t>
+          <t>1º Workshop de Pesquisas sobre Políticas de Memória.Os Centros Clandestinos de Detenção na ditadura militar argentina (1976-1983): o testemunho como motor de política de memória na Argentina. 2022. (Seminário).</t>
         </is>
       </c>
     </row>
@@ -3754,11 +3586,11 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>12º Seminário Memória, Documentação e Pesquisa.Os 60 anos do golpe e os impactos de 1964 na UFRJ. 2024. (Seminário).</t>
+          <t>Festival do Conhecimento UFRJ - Do Ancestral ao Digital. Qualificação, Cuidado e Terceira Idade: relatos de um curso de extensão; A trajetória e os acervos dos professores cassados da UFRJ durante a ditadura. 2022. (Exposição).</t>
         </is>
       </c>
     </row>
@@ -3769,12 +3601,11 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Festival do Conhecimento da UFRJ - Inteligência Artificial para o Sul Global.As exposições virtuais da Divisão de Memória Institucional como História Pública e divulgação científica.
-						2024. (Encontro).</t>
+          <t>I Congresso Multiprofissional e Interdisciplinar em Atenção Primária a Saúde. Dificuldades enfrentadas durante o ensino remoto em tempos de Covid-19. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -3785,11 +3616,12 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>I Conferência Nacional Multidisciplinar Online. O papel do professor na abordagem do autoritarismo: ferramentas didáticas para a formação docente. 2024. (Congresso).</t>
+          <t>II Encontro de Jovens Investigadores em Humanidades e Ciências Sociais.Os lenços das Madres e Abuelas de Plaza de Mayo como monumentos do ausente.
+						2022. (Encontro).</t>
         </is>
       </c>
     </row>
@@ -3800,11 +3632,11 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>I Congresso Nacional de Ciências Sociais e Humanas. O papel da Educação na promoção da inclusão social: um relato de experiência. 2024. (Congresso).</t>
+          <t>II Mostra Nacional de Pesquisa e Tecnologia. Futebol, Política e Repressão: a Argentina durante e após a Copa do Mundo de 1978. 2022. (Exposição).</t>
         </is>
       </c>
     </row>
@@ -3815,11 +3647,11 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>I Congresso Nacional de Educação para a Cidadania. Promovendo a diversidade por meio da prática docente: um relato de experiência. 2024. (Congresso).</t>
+          <t>I Seminário Brasileiro da Literacia Científica Editora &amp; Cursos.As pós-ditaduras na América Latina de hoje: os mitos historiográficos em torno dos passados autoritários; Repressão e mobilização: um estudo de caso de uma greve ocorrida durante o Estado Novo. 2022. (Seminário).</t>
         </is>
       </c>
     </row>
@@ -3830,12 +3662,11 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>I Encontro Discente do PPGH/UFPB.Os 60 anos do golpe de 1964 e os impactos na UFRJ: violência, repressão e memórias de resistência.
-						2024. (Encontro).</t>
+          <t>V Seminário de Docência e Contemporaneidade."Qualificação para o Cuidado de Crianças e Adolescentes": educação popular e partilha de saberes em tempos de pandemia. 2022. (Seminário).</t>
         </is>
       </c>
     </row>
@@ -3846,11 +3677,11 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>III Seminário Discente do PPGCS/UNISINOS.O intelectual, o militante, o homossexual: como o Brasil dos anos 1960 moldou a nova vida de Conrad Detrez (1937-1985)?. 2024. (Seminário).</t>
+          <t>XVI Semana de História Política &amp; XIII Seminário Nacional de História: Política, Cultura e Sociedade.A UFRJ e a ditadura civil-militar (1964-1985): trajetórias e cassação de professores. 2022. (Seminário).</t>
         </is>
       </c>
     </row>
@@ -3861,11 +3692,12 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>I Jornada de Estudos em História e Literatura. Memórias que resistem ao trauma: a literatura de teor testemunhal como registro e denúncia da violência ditatorial na América Latina. 2024. (Congresso).</t>
+          <t>2nd International Students Symposium.
+						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
@@ -3876,11 +3708,11 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>I Seminário Nacional Multidisciplinar em Pesquisa Científica.Memória como resistência: as Abuelas da Plaza de Mayo e a história como mestra da vida na Argentina. 2024. (Seminário).</t>
+          <t>Festival do Conhecimento UFRJ - Futuros Possíveis. (Re)construindo interações sociais a partir do Centro de Cidadania da Praia Vermelha: novos arranjos para seguir realizando extensão universitária; Educação e Transversalidade: o evento "Conexões em Conversa". 2021. (Exposição).</t>
         </is>
       </c>
     </row>
@@ -3891,12 +3723,12 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>IX Encontro de Pesquisa na Graduação em História.A primeira vida de Conrad Detrez (1937-1962): as influências da vivência católica em uma Liège rural para sua biografia.
-						2024. (Encontro).</t>
+          <t>II Encontro de Ensino e História.
+						2021. (Encontro).</t>
         </is>
       </c>
     </row>
@@ -3907,11 +3739,11 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Seminário Internacional "Lembrar para não Repetir: a oposição intelectual portuguesa e brasileira às Ditaduras".Conrad Detrez em Brasil e Portugal: memória e legado de um intelectual transnacional. 2024. (Seminário).</t>
+          <t>III Seminário de Pesquisa e Documentação em Sítios de Memória. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
@@ -3922,11 +3754,11 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>V Colóquios de Políticas e Gestão da Educação. Pandemia, universidade e sociedade: um olhar sobre a Extensão Universitária a partir de um curso de extensão. 2024. (Congresso).</t>
+          <t>II Seminário Internacional de Educação. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
@@ -3937,12 +3769,11 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>VII Encontro Discente de História do PPGH/UFRGS.Além do esquecimento, além do tempo: os silenciamentos presentes na trajetória de vida de Conrad Detrez (1937-1985).
-						2024. (Encontro).</t>
+          <t>I Mostra Científica Nacional. Aumento crescente de acidentes com animais peçonhentos do philos Arthropoda no Ceará: um indicador negligenciado. 2021. (Exposição).</t>
         </is>
       </c>
     </row>
@@ -3953,11 +3784,11 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>V Seminário Nacional de Sociologia.As exposições virtuais da Divisão de Memória Institucional (DMI/SiBI/UFRJ) e o papel das novas tecnologias na pesquisa acadêmica. 2024. (Seminário).</t>
+          <t>I Mostra Nacional de Pesquisa e Extensão. História da Educação do Campo: uma visão histórica e jurídica. 2021. (Exposição).</t>
         </is>
       </c>
     </row>
@@ -3968,11 +3799,12 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>XLV Jornada Giulio Massarani de Iniciação Científica, Tecnológica, Artística e Cultural da UFRJ.Universidade, repressão e resistência: a trajetória de docentes cassados pela UFRJ durante a ditadura civil-militar (1964-1985). 2024. (Seminário).</t>
+          <t>I Simpósio Nacional de Metodologias Ativas na Educação Profissional e Tecnológica.
+						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
@@ -3983,11 +3815,11 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>12ª Semana de Integração Acadêmica da UFRJ. Curso de Cuidadores da Terceira Idade: a articulação entre a Extensão Universitária e os mundos do trabalho; A UFRJ e a ditadura civil-militar (1964-1985): a trajetória dos professores cassados. 2023. (Congresso).</t>
+          <t>IV Seminário Internacional História do Tempo Presente. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
@@ -3998,11 +3830,11 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>I Seminário Discente: Discurso, subjetividade e educação.Extensão e ensino remoto: um relato de experiência. 2023. (Seminário).</t>
+          <t>IX Congreso Nacional de Extensión y VIII Jornadas de Extensión del Mercosur. Centro de Cidadania da Praia Vermelha: nuevas estrategias para seguir (re)pensando la extensión universitaria en tiempos de pandemia. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -4013,11 +3845,12 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>I Simpósio Nacional de Ensino, Pesquisa e Extensão &amp; VI Simpósio de Ensino, Pesquisa e Extensão.Educação e cuidado em tempos de pandemia: um estudo de caso na extensão universitária. 2023. (Seminário).</t>
+          <t>Jornada de História da UFBA.Ações das Madres e Abuelas de Plaza de Mayo e o resgate da história como mestra da vida.
+						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
@@ -4028,11 +3861,12 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>The Third International Conference on Creative Insubordination in Mathematics Education.Conexões e conversas: transgressões de profissionais da Educação. 2023. (Seminário).</t>
+          <t>V Colóquio Internacional de História da África.
+						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
@@ -4043,445 +3877,446 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>X Encontro de Pesquisas Históricas.Entre a cruz e a resistência: a trajetória de Conrad Detrez no Brasil (1962-1967).
-						2023. (Encontro).</t>
+          <t>V Seminário Internacional do Observatório dos Movimentos Sociais na América Latina.(Res)significando a distância: uma reflexão sobre o potencial das ações de assessoria desenvolvidas no âmbito do projeto. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>XVII Semana de História Política &amp; XIV Seminário Nacional de História: Política, Cultura e Sociedade.Universidade e Ditadura: a trajetória dos docentes cassados pela UFRJ (1964-1985). 2023. (Seminário).</t>
+          <t>Ciclo de Palestras sobre Ética - PPGLM UFRJ. 2024. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>11ª Semana de Integração Acadêmica da UFRJ. Agroecologia, cidadania e defesa da terra: projeto "Centro de Cidadania da Praia Vermelha" e a potência da extensão no universo virtual; "Qualificação para o Cuidado de Crianças e Adolescentes": resistência e educação popular em tempos de pandemia. 2022. (Congresso).</t>
+          <t>Homenagem a Newton da Costa - Programa de pós-graduação Lógica e Metafísica da Universidade Federal do Rio de Janeiro. 2024. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>1º Workshop de Pesquisas sobre Políticas de Memória.Os Centros Clandestinos de Detenção na ditadura militar argentina (1976-1983): o testemunho como motor de política de memória na Argentina. 2022. (Seminário).</t>
+          <t>Seminário a violência e os limites do cânone filosófico - UERJ/ UFRJ. 2024. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Festival do Conhecimento UFRJ - Do Ancestral ao Digital. Qualificação, Cuidado e Terceira Idade: relatos de um curso de extensão; A trajetória e os acervos dos professores cassados da UFRJ durante a ditadura. 2022. (Exposição).</t>
+          <t>VII EHECO - Encontro de História da Educação do Centro-Oeste - Interseções Entre Ensino e Pesquisa em História da Educação: Desafios e Perspectivas no Centro-Oeste.O pensamento e os referenciais teóricos da educadora e intelectual feminista Anália Emília Franco: reconstruindo saberes político-educacionais.
+						2024. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>I Congresso Multiprofissional e Interdisciplinar em Atenção Primária a Saúde. Dificuldades enfrentadas durante o ensino remoto em tempos de Covid-19. 2022. (Congresso).</t>
+          <t>V Polytropia - Seminário Nacional de Filosofia Antiga,=. 2024. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>II Encontro de Jovens Investigadores em Humanidades e Ciências Sociais.Os lenços das Madres e Abuelas de Plaza de Mayo como monumentos do ausente.
-						2022. (Encontro).</t>
+          <t>Workshop de Filosofia da Mente. 2024. (Oficina).</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>II Mostra Nacional de Pesquisa e Tecnologia. Futebol, Política e Repressão: a Argentina durante e após a Copa do Mundo de 1978. 2022. (Exposição).</t>
+          <t>Workshop de Lógica UFRJ. 2024. (Oficina).</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>I Seminário Brasileiro da Literacia Científica Editora &amp; Cursos.As pós-ditaduras na América Latina de hoje: os mitos historiográficos em torno dos passados autoritários; Repressão e mobilização: um estudo de caso de uma greve ocorrida durante o Estado Novo. 2022. (Seminário).</t>
+          <t>A Luta pela Terra no Sertão Carioca. 2023. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>V Seminário de Docência e Contemporaneidade."Qualificação para o Cuidado de Crianças e Adolescentes": educação popular e partilha de saberes em tempos de pandemia. 2022. (Seminário).</t>
+          <t>História e Memória Social do Teatro: perspectivas para o estudo do teatro como objeto de pesquisa histórica. 2023. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>XVI Semana de História Política &amp; XIII Seminário Nacional de História: Política, Cultura e Sociedade.A UFRJ e a ditadura civil-militar (1964-1985): trajetórias e cassação de professores. 2022. (Seminário).</t>
+          <t>IV Colóquio de Gênero e Pesquisa Histórica.Anália Franco (1853-1919): uma feminista na luta pela educação cidadã e democrática. 2023. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>2nd International Students Symposium.
-						2021. (Simpósio).</t>
+          <t>IV Encontro Nueshe - UNIVERSO.
+						2023. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Festival do Conhecimento UFRJ - Futuros Possíveis. (Re)construindo interações sociais a partir do Centro de Cidadania da Praia Vermelha: novos arranjos para seguir realizando extensão universitária; Educação e Transversalidade: o evento "Conexões em Conversa". 2021. (Exposição).</t>
+          <t>Um esboço acerca da história como autoconhecimento do espírito em R. G. Collingwood - UFRRJ/LAPETHI. 2023. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>II Encontro de Ensino e História.
-						2021. (Encontro).</t>
+          <t>Workshop de Filosofia da Religião - Programa de pós-graduação Lógica e Metafísica da UFRJ. 2023. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>III Seminário de Pesquisa e Documentação em Sítios de Memória. 2021. (Seminário).</t>
+          <t>XII Simpósio Educação e Sociedade Contemporânea - Cap UERJ.
+						2023. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>II Seminário Internacional de Educação. 2021. (Seminário).</t>
+          <t>7º Seminário Interno do PRONEX - Caminhos da Política no Império do Brasil. 2022. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>I Mostra Científica Nacional. Aumento crescente de acidentes com animais peçonhentos do philos Arthropoda no Ceará: um indicador negligenciado. 2021. (Exposição).</t>
+          <t>Ciclo de Palestras Antiga e Conexões: Religião e Pluralidade no Império Romano?. 2022. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>I Mostra Nacional de Pesquisa e Extensão. História da Educação do Campo: uma visão histórica e jurídica. 2021. (Exposição).</t>
+          <t>I Colóquio Regional Sertões, Tempo, Espaço e Natureza. 2022. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>I Simpósio Nacional de Metodologias Ativas na Educação Profissional e Tecnológica.
-						2021. (Simpósio).</t>
+          <t>II Colóquio Virtual Internacional de História das Américas - UFJF. 2022. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>IV Seminário Internacional História do Tempo Presente. 2021. (Seminário).</t>
+          <t>II Encontro Sergipano de História da Educação.O PENSAMENTO POLÍTICO EDUCACIONAL DEMOCRÁTICO DE ANÁLIA FRANCO.
+						2022. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>IX Congreso Nacional de Extensión y VIII Jornadas de Extensión del Mercosur. Centro de Cidadania da Praia Vermelha: nuevas estrategias para seguir (re)pensando la extensión universitaria en tiempos de pandemia. 2021. (Congresso).</t>
+          <t>I Simpósio de História, Literatura e Resistências - PUC Minas.
+						2022. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Jornada de História da UFBA.Ações das Madres e Abuelas de Plaza de Mayo e o resgate da história como mestra da vida.
-						2021. (Simpósio).</t>
+          <t>Morte e Pós Modernismo em Sandman. 2022. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>V Colóquio Internacional de História da África.
-						2021. (Simpósio).</t>
+          <t>V Semana de História da UFRJ.Anália Franco: a revolução pela educação (1898-1919). 2022. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>V Seminário Internacional do Observatório dos Movimentos Sociais na América Latina.(Res)significando a distância: uma reflexão sobre o potencial das ações de assessoria desenvolvidas no âmbito do projeto. 2021. (Seminário).</t>
+          <t>XIII Seminário Nacional de História: Política, Cultura e Sociedade - UERJ.Anália Franco: a educação como emancipadora da cidadania democrática. 2022. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>BARROSO, L; SILVA, Q. O ;FREITAS, T. S;CONCEIÇÃO, A. A;CAMARGO, J. L;QUEIROZ, A. C. B. Os 60 anos de 1964 e os impactos na UFRJ. 2024. (Exposição).</t>
+          <t>Estudos Medievais: Lugares de poder e de conflito no contexto Tardo Antigo e Medieval.
+						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>QUEIROZ, A. C. B;CONCEIÇÃO, A. A;CAMARGO, J. L;BARROSO, L; SILVA, Q. O ;FREITAS, T. S;BORGES, V. V. B. C. 12º Seminário Memória, Documentação e Pesquisa. 2024. (Congresso).</t>
+          <t>III Evento Internacional - Aconselhar e prescrever em terras cristãs. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>SANTOS, J. L. D. M;FARIAS, F. F. C;CRUZ, U. R. X;REGO, L. B. I Congresso Nacional de Educação para a Cidadania. 2024. (Concurso).</t>
+          <t>IV Seminário de Estudos Medievais -PEM-UERJ. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>QUEIROZ, A. C. B;CONCEIÇÃO, A. A;CAMARGO, J. L;BARROSO, L. Josué de Castro e o seu legado. 2023. (Exposição).</t>
+          <t>XVII Simpósio Nacional da ABHR ?II Simpósio Nacional de Estudos da Religião da UEG: Éticas e Religiões em tempos de crise.
+						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Maria Vitória de Oliveira Cardoso</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>QUEIROZ, A. C. B;CONCEIÇÃO, A. A;CAMARGO, J. L; CARVALHO, A ;BARROSO, L. CAp UFRJ 75 Anos. 2023. (Exposição).</t>
+          <t>I Simpósio Multiprofissional em Zoonoses na Amazônia.I Simpósio multidisciplinar em zoonozes na Amazôbia.
+						2022. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Maria Vitória de Oliveira Cardoso</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -4489,74 +4324,74 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>GONCALVES, P. A. M. ;RIOS, M. F. B;BARROSO, L; AGUIAR, S ; BARONI, G ; GABRIELA, M ; MILENA, A ; VICTORIA, M ;COSTA, Y. X. A.. Congresso Nacional Multidisciplinar em Ciência. 2022. (Congresso).</t>
+          <t>Seminário de Direito Eleitoral - Belém. 2022. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Maria Vitória de Oliveira Cardoso</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>COSTA, B. T; SANTI, J ;BARROSO, L;MAIA, H. L. M;VENTURA, A. C. S;PARIZANI, R; FEREIRA, K ; STOFEL, B ; CASTRO, A. . 11ª Semana de Integração Acadêmica da UFRJ. 2022. (Congresso).</t>
+          <t>Eu Me Defino ! A importância da Mulher Líder Comunitária. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Maria Vitória de Oliveira Cardoso</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>PESSOA, A. E. S;LEITE, P. G;AKINRULI, L. C. M. C;BARROSO, L;PAZ, L. F. S. XX Encontro Estadual de História da Associação Nacional de História - Seção Paraíba (ANPUH-PB). 2022. (Congresso).</t>
+          <t>Transmutações Normativas: Aplicabilidade e Garantias. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Mariana Barrozo Gonzalez</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>QUEIROZ, A. C. B;CAMARGO, J. L;SOTO, M. C;CONCEIÇÃO, A. A;PAES, F. W;BARROSO, L;FREITAS, T. S. A UFRJ e o 7 de setembro: os usos políticos do passado. 2022. (Exposição).</t>
+          <t>XLV Jornada Giulio Massarani de Iniciação Científica, Tecnológica e Cultural da UFR.Das promessas de casamento a quebra de expectativas conjugais: uma análise das ações de divórcio do Tribunal Eclesiástico do Rio de Janeiro (1808-1822). 2024. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Mariana Barrozo Gonzalez</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>QUEIROZ, A. C. B;CAMARGO, J. L;SOTO, M. C;CONCEIÇÃO, A. A;PAES, F. W;BARROSO, L;FREITAS, T. S. Galeria de Reitores da Universidade Federal do Rio de Janeiro (UFRJ). 2022. (Exposição).</t>
+          <t>12ª Semana de Integração Acadêmica. A sua melhor fama é não ter fama?: Representações comportamentais dos casais nas ações de divórcio do Tribunal Eclesiástico do Rio de Janeiro (1808-1822). 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Mariana Barrozo Gonzalez</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -4564,14 +4399,14 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>BARROSO, L. 1º Concurso de Educação Étnico-Racial nas Escolas. 2022. (Concurso).</t>
+          <t>11ª Semana de Integração Acadêmica. Entre a submissão e a resistência: a reação da mulher à violência de gênero  praticada pelos seus maridos presente nos processos de divórcio do século XIX (Rio de Janeiro, 1808-1831).. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Mariana Barrozo Gonzalez</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -4579,14 +4414,15 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>FREITAS, I. S;FREITAS, I. P. S;BARROSO, L;AMORIM, J. S;BRAGA, B. M. R;CARVALHO, K. R;SALES, T. C. R;SILVA, J. F. T;VIANA, R. T. L. I Mostra Científica Nacional. 2021. (Exposição).</t>
+          <t>XLII Jornada Giulio Massarani de Iniciação Científica, Tecnológica, Artística e Cultural (JICTAC 2020 - Edição Especial) - Evento UFRJ.Da vida privada à pública: A violência de gênero presente nos libelos de divórcio apresentados ao Juízo Eclesiástico do Rio de Janeiro (1808-1831)..
+						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Matheus Paranhos Giolo Mezadri</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -4594,14 +4430,14 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>HOLANDA, M. D;PEREIRA, A. R;SILVA, I. S;CARNEIRO, P. H. W;BARROSO, L;LIMA, L. G. R;SILVA, W. M. A;OLIVEIRA, E. S. S. XII Encontro Regional Norte de História Oral &amp; IV Congresso Pan-Amazônico. 2021. (Congresso).</t>
+          <t>III Seminário de Pesquisa e Ensino da Graduação em História do IFCH - SEPEGH.A crista do pan-arabismo: Nasser e os usos políticos do rádio, 1956-1958. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Matheus Paranhos Giolo Mezadri</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -4609,44 +4445,45 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>CARVALHO, C. P;SILVA, R. B;MELO, E. S. O;BARROSO, L;RIBEIRO, L. O;MOREIRA, L. B.;PIMENTEL, K. S. M;VALERIO, C. D. D;REIS, M. F;GOMES, J. C. A. XXVI Semana IPPUR. 2021. (Outro).</t>
+          <t>XXIX Congresso de Iniciação Científica da UNICAMP. A crista do pan-arabismo: Nasser e os usos políticos do rádio, 1956-1958. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Mayra Mendes Trocado</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>ANJOS, R. C. S;OLIVEIRA, M. M;RIBEIRO, A. C. S. M; BARROS, R ;BARROSO, L. IX Seminário de Integração dos Servidores Técnico-Administrativos em Educação. 2021. (Congresso).</t>
+          <t>SASE's 35th Annual Conference.
+						2023. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Mayra Mendes Trocado</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>COSTA, B. T;BARROSO, L;CARDOSO, A. M. A. S;FIALHO, F. D. O;MAGALHAES, F. R. P;SANTIAGO, F. R. S. M;SANTOS, M. E. A. L. R. N;VENTURA, A. C. S. Festival do Conhecimento UFRJ - Futuros Possíveis. 2021. (Exposição).</t>
+          <t>SIAc ? Semana de Integração Acadêmica da UFRJ.Quase heróis: os inválidos da Primeira Guerra Mundial em Portugal. 2022. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Murilo Rosa Garcias</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -4654,14 +4491,15 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Ciclo de Palestras sobre Ética - PPGLM UFRJ. 2024. (Outra).</t>
+          <t>XXVII Encontro Estadual de História da ANPUH-SP.Reavaliando os contatos entre missionários protestantes e maçons brasileiros na Primeira República: um olhar sobre a autobiografia de Salomão Ginsburg.
+						2024. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Murilo Rosa Garcias</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -4669,289 +4507,293 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Homenagem a Newton da Costa - Programa de pós-graduação Lógica e Metafísica da Universidade Federal do Rio de Janeiro. 2024. (Outra).</t>
+          <t>XXVII Encontro Estadual de História da ANPUH-SP.
+						2024. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Murilo Rosa Garcias</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Seminário a violência e os limites do cânone filosófico - UERJ/ UFRJ. 2024. (Seminário).</t>
+          <t>Maçonaria, antiguidade e usos do passado..
+						2023. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Murilo Rosa Garcias</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>VII EHECO - Encontro de História da Educação do Centro-Oeste - Interseções Entre Ensino e Pesquisa em História da Educação: Desafios e Perspectivas no Centro-Oeste.O pensamento e os referenciais teóricos da educadora e intelectual feminista Anália Emília Franco: reconstruindo saberes político-educacionais.
-						2024. (Encontro).</t>
+          <t>Semana de Integração Acadêmica da UFRJ. 2022. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Murilo Rosa Garcias</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>V Polytropia - Seminário Nacional de Filosofia Antiga,=. 2024. (Seminário).</t>
+          <t>ART em Teses: Novas Pesquisas. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Murilo Rosa Garcias</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Workshop de Filosofia da Mente. 2024. (Oficina).</t>
+          <t>III Evento Internacional: Aconselhar e prescrever em terras cristãs (UNICAMP).
+						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Murilo Rosa Garcias</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Workshop de Lógica UFRJ. 2024. (Oficina).</t>
+          <t>I Seminário Discente de Ensino e Pesquisa em História (UFOP). 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Murilo Rosa Garcias</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>A Luta pela Terra no Sertão Carioca. 2023. (Outra).</t>
+          <t>Memórias das afroconfrarias - Rio de Janeiro dos séculox XVI a XVIII (IPN). 2021. (Oficina).</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Murilo Rosa Garcias</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>História e Memória Social do Teatro: perspectivas para o estudo do teatro como objeto de pesquisa histórica. 2023. (Outra).</t>
+          <t>XV Semana de História Política (UERJ).Um judeu protestante na cidade do santo: política, religião e maçonaria em São Fidélis (1893-1900). 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Nicolle Sthefane de Oliveira Lima</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>IV Colóquio de Gênero e Pesquisa Histórica.Anália Franco (1853-1919): uma feminista na luta pela educação cidadã e democrática. 2023. (Outra).</t>
+          <t>Cidades, Territórios e Direitos. 2022. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Nicolle Sthefane de Oliveira Lima</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>IV Encontro Nueshe - UNIVERSO.
-						2023. (Encontro).</t>
+          <t>Congresso Online Internacional de História - CONIHIS. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Nicolle Sthefane de Oliveira Lima</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Um esboço acerca da história como autoconhecimento do espírito em R. G. Collingwood - UFRRJ/LAPETHI. 2023. (Outra).</t>
+          <t>I Congresso Latino-americano de Desenvolvimento Sustentável da UNESP. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Nicolle Sthefane de Oliveira Lima</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Workshop de Filosofia da Religião - Programa de pós-graduação Lógica e Metafísica da UFRJ. 2023. (Outra).</t>
+          <t>Seminários de pesquisa Centro de Memória Unicamp história e memória 2020.Seminário Patrimônios difíceis, memórias da dor. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Nicolle Sthefane de Oliveira Lima</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>XII Simpósio Educação e Sociedade Contemporânea - Cap UERJ.
-						2023. (Simpósio).</t>
+          <t>Simpósio de Integração Acadêmica.O ensino de história em tempos de pandemia: contribuições do ensino digital para a discussão sobre os protagonistas da história.
+						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Nicolle Sthefane de Oliveira Lima</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>7º Seminário Interno do PRONEX - Caminhos da Política no Império do Brasil. 2022. (Seminário).</t>
+          <t>Simpósio de Integração Acadêmica.Historia Pública a partir da extensão: Podcast Música e História Colombiana.
+						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Paulo Cesar Machado Farias Junior</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Ciclo de Palestras Antiga e Conexões: Religião e Pluralidade no Império Romano?. 2022. (Outra).</t>
+          <t>"Oriente Médio e EUA" - Curso para bacharelado em História.A Questão Curda e a luta por soberania em Rojava.
+						2024. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Paulo Cesar Machado Farias Junior</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>I Colóquio Regional Sertões, Tempo, Espaço e Natureza. 2022. (Outra).</t>
+          <t>13ª Semana de Integração Acadêmica da UFRJ 2024. PENSAMENTO POLÍTICO CURDO NA SÍRIA E INTERFACES COM A SEMIÓTICA DE WALTER MIGNOLO. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Paulo Cesar Machado Farias Junior</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>II Colóquio Virtual Internacional de História das Américas - UFJF. 2022. (Outra).</t>
+          <t>Colóquio Internacional Deslocamentos, Violências e Direitos Humanos nas Américas: os desafios do tempo presente.A proposta curda à crise do Estado-nação: como a primavera árabe se enreda com as imposições fronteiriças coloniais na Síria do século XXI.
+						2024. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Paulo Cesar Machado Farias Junior</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>II Encontro Sergipano de História da Educação.O PENSAMENTO POLÍTICO EDUCACIONAL DEMOCRÁTICO DE ANÁLIA FRANCO.
-						2022. (Encontro).</t>
+          <t>Jornada de Estudos Históricos Professor Manuel Salgado.O baathismo na construção da república Síria: nacionalismo árabe e a importância da ?asabiyya.
+						2024. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Paulo Cesar Machado Farias Junior</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>I Simpósio de História, Literatura e Resistências - PUC Minas.
-						2022. (Simpósio).</t>
+          <t>Semana de História Puc-Rio.Nação e Revolução na Síria: o programa político curdo de Nação Democrática.
+						2024. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Paulo Cesar Machado Farias Junior</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -4959,14 +4801,14 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Morte e Pós Modernismo em Sandman. 2022. (Outra).</t>
+          <t>11ª Semana de Integração Acadêmica da Universidade Federal do Rio de Janeiro. 2022. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Paulo Cesar Machado Farias Junior</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -4974,14 +4816,14 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>V Semana de História da UFRJ.Anália Franco: a revolução pela educação (1898-1919). 2022. (Outra).</t>
+          <t>V Semana de História - UFRJ.A Primavera Árabe na Síria: uma nova identidade em formação na Revolução Curda. 2022. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Paulo Cesar Machado Farias Junior</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -4989,76 +4831,75 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>XIII Seminário Nacional de História: Política, Cultura e Sociedade - UERJ.Anália Franco: a educação como emancipadora da cidadania democrática. 2022. (Seminário).</t>
+          <t>XVI Semana de História Política.O movimento de mulheres curdas: a experiência revolucionária como esfera de formação de identidade. 2022. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Samuel Barbosa Junior</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Estudos Medievais: Lugares de poder e de conflito no contexto Tardo Antigo e Medieval.
-						2021. (Simpósio).</t>
+          <t>I Seminário Internacional Laicidade &amp; Educação. 2024. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Samuel Barbosa Junior</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>III Evento Internacional - Aconselhar e prescrever em terras cristãs. 2021. (Outra).</t>
+          <t>XXIV Encontro Regional de História. Religião, Política e Ensino de História na Zona Oeste do Rio de Janeiro: reflexões sobre extremismos na Educação Básica. 2024. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Samuel Barbosa Junior</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>IV Seminário de Estudos Medievais -PEM-UERJ. 2021. (Seminário).</t>
+          <t>1º Congresso Internacional Multidisciplinar sobre Educação. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Samuel Barbosa Junior</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>XVII Simpósio Nacional da ABHR ?II Simpósio Nacional de Estudos da Religião da UEG: Éticas e Religiões em tempos de crise.
-						2021. (Simpósio).</t>
+          <t>Encontro de Pesquisa: História Política e Extrema Direita.
+						2023. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Lucas Souza Nascimento</t>
+          <t>Samuel Barbosa Junior</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -5066,30 +4907,29 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>NASCIMENTO, L. S.. 20 anos da lei 10.639 e a educação antirracista. 20 anos da lei 10.639 e a educação antirracista, Rio de Janeiro, p. 1 - 2, 30 jan.  2023.</t>
+          <t>Seminário Internacional Direita Radical em Debate. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Maria Vitória de Oliveira Cardoso</t>
+          <t>Samuel Barbosa Junior</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>I Simpósio Multiprofissional em Zoonoses na Amazônia.I Simpósio multidisciplinar em zoonozes na Amazôbia.
-						2022. (Simpósio).</t>
+          <t>VI Seminário de Estudos Medievais. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Maria Vitória de Oliveira Cardoso</t>
+          <t>Samuel Barbosa Junior</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -5097,14 +4937,14 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Seminário de Direito Eleitoral - Belém. 2022. (Seminário).</t>
+          <t>V Seminário de Estudos Medievais - PEM/UERJ. 2022. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Maria Vitória de Oliveira Cardoso</t>
+          <t>Samuel Barbosa Junior</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -5112,89 +4952,91 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Eu Me Defino ! A importância da Mulher Líder Comunitária. 2021. (Seminário).</t>
+          <t>31º Simpósio Nacional de História da ANPUH.
+						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Maria Vitória de Oliveira Cardoso</t>
+          <t>Thaís Regina Cardoso Barbosa</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Transmutações Normativas: Aplicabilidade e Garantias. 2021. (Seminário).</t>
+          <t>ANPUH.Os movimentos sociais e a sociedade civil como fator de mudança. 2024. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Maria Vitória de Oliveira Cardoso</t>
+          <t>Thaís Regina Cardoso Barbosa</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>SEMINÁRIO DE DIREITO ELEITORAL - PARÁ 2022. 2022. (Outro).</t>
+          <t>ANPUH.REVÚS, REVOLUÇÃO TOTAL OU TUMULTO SOCIAL ? Sociedade civil angolana enquanto fator de mudança sociopolítica. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Maria Vitória de Oliveira Cardoso</t>
+          <t>Victor Brandão de Oliveira</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Místicos e Bárbaros - Corpo, Sabor e Fé. 2022. (Exposição).</t>
+          <t>Nos gramados da democracia: reflexões sobre esporte e mídia. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Mariana Barrozo Gonzalez</t>
+          <t>Victor Brandão de Oliveira</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>XLV Jornada Giulio Massarani de Iniciação Científica, Tecnológica e Cultural da UFR.Das promessas de casamento a quebra de expectativas conjugais: uma análise das ações de divórcio do Tribunal Eclesiástico do Rio de Janeiro (1808-1822). 2024. (Outra).</t>
+          <t>XI Encontro de Pesquisa em História da UFMG - "Narrativas em disputa: nostalgia, identidades e apropriações do passado".O êxodo de nossos santos: o Brasil no mercado no futebolístico global (1978-90).
+						2023. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Mariana Barrozo Gonzalez</t>
+          <t>Victor Brandão de Oliveira</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>12ª Semana de Integração Acadêmica. A sua melhor fama é não ter fama?: Representações comportamentais dos casais nas ações de divórcio do Tribunal Eclesiástico do Rio de Janeiro (1808-1822). 2023. (Congresso).</t>
+          <t>11a Semana de Integração Acadêmica da Universidade Federal do Rio de Janeiro. 2022. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Mariana Barrozo Gonzalez</t>
+          <t>Victor Brandão de Oliveira</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -5202,30 +5044,30 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>11ª Semana de Integração Acadêmica. Entre a submissão e a resistência: a reação da mulher à violência de gênero  praticada pelos seus maridos presente nos processos de divórcio do século XIX (Rio de Janeiro, 1808-1831).. 2022. (Congresso).</t>
+          <t>4o Simpósio Internacional de Estudos sobre Futebol.“Zico ou Áustria”: os desdobramentos da transferência de Arthur Antunes Coimbra para o Udinese e as fronteiras invisíveis do futebol (1983).
+						2022. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Mariana Barrozo Gonzalez</t>
+          <t>Victor Brandão de Oliveira</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>XLII Jornada Giulio Massarani de Iniciação Científica, Tecnológica, Artística e Cultural (JICTAC 2020 - Edição Especial) - Evento UFRJ.Da vida privada à pública: A violência de gênero presente nos libelos de divórcio apresentados ao Juízo Eclesiástico do Rio de Janeiro (1808-1831)..
-						2021. (Simpósio).</t>
+          <t>Jornada de Estudos Históricos Professor Manoel Salgado.Espetacularização, Globalização, Crise e os Mercados no Futebol: as transferências de jogadores brasileiros para clubes do exterior (1978-1990). 2022. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Matheus Paranhos Giolo Mezadri</t>
+          <t>Victor Brandão de Oliveira</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -5233,14 +5075,14 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>III Seminário de Pesquisa e Ensino da Graduação em História do IFCH - SEPEGH.A crista do pan-arabismo: Nasser e os usos políticos do rádio, 1956-1958. 2021. (Seminário).</t>
+          <t>IV Seminário Internacional Micro-história, Trajetória e Imigração.As fronteiras invisíveis do futebol: as transferências de jogadores brasileiros para clubes do exterior (1980-1990). 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Matheus Paranhos Giolo Mezadri</t>
+          <t>Victor Brandão de Oliveira</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -5248,14 +5090,14 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>XXIX Congresso de Iniciação Científica da UNICAMP. A crista do pan-arabismo: Nasser e os usos políticos do rádio, 1956-1958. 2021. (Congresso).</t>
+          <t>VI Semana de História - Sujeitos, olhares e métodos: os desafios e perspectivas da interdisciplinaridade na História. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Mayra Mendes Trocado</t>
+          <t>Victor Lisboa da Fonseca Santos</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -5263,62 +5105,59 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>SASE's 35th Annual Conference.
-						2023. (Encontro).</t>
+          <t>?Foreigners and the shaping of Athenian citizenship in democratic Athens?. 2023. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Mayra Mendes Trocado</t>
+          <t>Victor Lisboa da Fonseca Santos</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>SIAc ? Semana de Integração Acadêmica da UFRJ.Quase heróis: os inválidos da Primeira Guerra Mundial em Portugal. 2022. (Outra).</t>
+          <t>12 Semana de Integração Acadêmica da UFRJ. ?Que faça a vontade de YAWEH em tudo o que empreende a sua mão?: os sentidos do trabalho e da disciplina a comunidade essênia de Qumran.. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Murilo Rosa Garcias</t>
+          <t>Victor Lisboa da Fonseca Santos</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>XXVII Encontro Estadual de História da ANPUH-SP.Reavaliando os contatos entre missionários protestantes e maçons brasileiros na Primeira República: um olhar sobre a autobiografia de Salomão Ginsburg.
-						2024. (Encontro).</t>
+          <t>Conferência Internacional Israel Como Modelo Cultural: imaginários e usos na nova extrema-direita. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Murilo Rosa Garcias</t>
+          <t>Victor Lisboa da Fonseca Santos</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>XXVII Encontro Estadual de História da ANPUH-SP.
-						2024. (Encontro).</t>
+          <t>X Ciclo Internacional de Estudos Antigos e Medievais: Humanidades e Tecnologias aplicadas à Antiguidade e Medievalidade.. O Trabalho nos textos sectários de Qumran: considerações iniciais sobre a economia dos essênios do Mar Morto.. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Murilo Rosa Garcias</t>
+          <t>Victor Lisboa da Fonseca Santos</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -5326,61 +5165,59 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Maçonaria, antiguidade e usos do passado..
-						2023. (Encontro).</t>
+          <t>XIX Jornada de História Antiga / III Jornada Internacional de História Antiga e Medieval: Religião, Conectividade e Conflitos no Mediterrâneo Antigouot;. As relações de Trabalho em Qumran: reflexões iniciais sobre a economia monástica às margens do Mar Morto. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Murilo Rosa Garcias</t>
+          <t>Victor Lisboa da Fonseca Santos</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Semana de Integração Acadêmica da UFRJ. 2022. (Seminário).</t>
+          <t>XXXIII Ciclo de Debates em História Antiga ? História Antiga em Movimento: 30 anos do LHIA.. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Murilo Rosa Garcias</t>
+          <t>Victor Lisboa da Fonseca Santos</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>ART em Teses: Novas Pesquisas. 2021. (Seminário).</t>
+          <t>XXXIII Ciclo de Debates em História Antiga ? História Antiga em Movimento: 30 anos do LHIA.. Quando o Deserto se torna uma ilha: considerações iniciais sobre a Comunidade e Qumran e o Deserto da Judeia.. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Murilo Rosa Garcias</t>
+          <t>Victor Lisboa da Fonseca Santos</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>III Evento Internacional: Aconselhar e prescrever em terras cristãs (UNICAMP).
-						2021. (Simpósio).</t>
+          <t>XXXIII Ciclo de Debates em História Antiga ? História Antiga em Movimento: 30 anos do LHIA.. Entre ver e enxergar: a escrita da História no Projeto de Extensão Viva+Cidade. 2023. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Murilo Rosa Garcias</t>
+          <t>Victor Lisboa da Fonseca Santos</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -5388,136 +5225,137 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>I Seminário Discente de Ensino e Pesquisa em História (UFOP). 2021. (Seminário).</t>
+          <t>VIII Ciclo de Debates em Antiguidade: Diferentes Olhares sobre a Antiguidade Oriental. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Murilo Rosa Garcias</t>
+          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Memórias das afroconfrarias - Rio de Janeiro dos séculox XVI a XVIII (IPN). 2021. (Oficina).</t>
+          <t>"Vítimas ou resistentes? A produção de memórias sobre as experiências de pessoas LGBT+ durante a Ditadura Civil-Militar Brasileira. 2024. (Oficina).</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Murilo Rosa Garcias</t>
+          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>XV Semana de História Política (UERJ).Um judeu protestante na cidade do santo: política, religião e maçonaria em São Fidélis (1893-1900). 2021. (Seminário).</t>
+          <t>21º Encontro de História da Anpuh-Rio: História, Democracia, Igualdade e Diversidade.
+						2024. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Nicolle Sthefane de Oliveira Lima</t>
+          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Cidades, Territórios e Direitos. 2022. (Seminário).</t>
+          <t>21º Encontro de História da Anpuh-Rio: História, Democracia, Igualdade e Diversidade.Trajetória de João Silvério Trevisan: Formação política e diálogo com as esquerdas.
+						2024. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Nicolle Sthefane de Oliveira Lima</t>
+          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Congresso Online Internacional de História - CONIHIS. 2021. (Congresso).</t>
+          <t>60 anos do golpe de 1964: periodização do regime em debate. 2024. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Nicolle Sthefane de Oliveira Lima</t>
+          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>I Congresso Latino-americano de Desenvolvimento Sustentável da UNESP. 2021. (Congresso).</t>
+          <t>Seminário 60 anos do golpe: história, memória e novas abordagens da ditadura no Brasil. 2024. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Nicolle Sthefane de Oliveira Lima</t>
+          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Seminários de pesquisa Centro de Memória Unicamp história e memória 2020.Seminário Patrimônios difíceis, memórias da dor. 2021. (Seminário).</t>
+          <t>Seminário História, Memória e Luta no Presente: reflexões a partir de imagens e testemunhos da Ditadura Militar Brasileira. 2024. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Nicolle Sthefane de Oliveira Lima</t>
+          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Simpósio de Integração Acadêmica.O ensino de história em tempos de pandemia: contribuições do ensino digital para a discussão sobre os protagonistas da história.
-						2021. (Simpósio).</t>
+          <t>I Encontro de Pesquisa História Política e Extrema Direita.O fundamentalismo de direita segundo João Silvério Trevisan.
+						2023. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Nicolle Sthefane de Oliveira Lima</t>
+          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Simpósio de Integração Acadêmica.Historia Pública a partir da extensão: Podcast Música e História Colombiana.
-						2021. (Simpósio).</t>
+          <t>Jornada de Estudos Históricos Professor Manoel Salgado ? Edição 2023.As memórias de João Silvério Trevisan em "Pai, Pai" (2017). 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Nicolle Sthefane de Oliveira Lima</t>
+          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -5525,122 +5363,120 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>LIMA, N. S. O.. XIV ENCONTRO INTERNACIONAL HANNAH ARENDT. 2023. (Congresso).</t>
+          <t>o 4º Encontro Internacional História &amp; Parcerias.Análise do testemunho de João Silvério Trevisan ao Memorial da Resistência de São Paulo: da infância ao exílio.
+						2023. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Nicolle Sthefane de Oliveira Lima</t>
+          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>LIMA, N. S. O.. Exposição Virtual 'Latino-americanes como nós'. 2022. (Exposição).</t>
+          <t>Semana de História PUC-Rio 2023: História, Arte e Literatura.A resistência do vaga-lume: o pensamento de João Silvério Trevisan acerca da vivência e do ativismo homossexual no Brasil durante as décadas de 1970 e 1980. 2023. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Nicolle Sthefane de Oliveira Lima</t>
+          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>LIMA, N. S. O.. VII Semana de História - Encruzilhadas: Para onde vamos a partir daqui?. 2022. (Congresso).</t>
+          <t>Seminário História Oral, Memória e Violência Política no Mundo Contemporâneo. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Nicolle Sthefane de Oliveira Lima</t>
+          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>LIMA, N. S. O.. Mostra Universitária UFV. 2022. (Outro).</t>
+          <t>Seminário História Oral, Memória e Violência Política no Mundo Contemporâneo.O jornal Lampião da Esquina e a prática política homossexual. 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Nicolle Sthefane de Oliveira Lima</t>
+          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>LIMA, N. S. O.; BHERING, A. D. . Primeira Guerra Mundial: o conhecimento histórico e outros protagonistas.
-						2021. (Desenvolvimento de material didático ou instrucional - Videoaula - Material de apoio ao ensino remoto).</t>
+          <t>XVII Semana de História Política da Universidade do Estado do Rio de Janeiro | XIV Seminário Nacional de História: Política, Cultura e Sociedade ? Povos Originários e Ancestralidade: florestanias e alianças afetivas..As memórias de João Silvério Trevisan em "Pai, Pai" (2017). 2023. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Paulo Cesar Machado Farias Junior</t>
+          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>"Oriente Médio e EUA" - Curso para bacharelado em História.A Questão Curda e a luta por soberania em Rojava.
-						2024. (Encontro).</t>
+          <t>III Seminário de Pesquisa e Ensino da Graduação em História.O gueto homossexual e o texto "Saindo do Gueto" do Jornal Lampião da Esquina. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Paulo Cesar Machado Farias Junior</t>
+          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>13ª Semana de Integração Acadêmica da UFRJ 2024. PENSAMENTO POLÍTICO CURDO NA SÍRIA E INTERFACES COM A SEMIÓTICA DE WALTER MIGNOLO. 2024. (Congresso).</t>
+          <t>XLII Jornada Giulio Massarani de Iniciação Científica, Tecnológica, Artística e Cultural (JICTAC 2020 - Edição Especial).O jornal Lampião da Esquina e a prática política homossexual. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Paulo Cesar Machado Farias Junior</t>
+          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Colóquio Internacional Deslocamentos, Violências e Direitos Humanos nas Américas: os desafios do tempo presente.A proposta curda à crise do Estado-nação: como a primavera árabe se enreda com as imposições fronteiriças coloniais na Síria do século XXI.
-						2024. (Simpósio).</t>
+          <t>XV Semana de História Política da Universidade do Estado do Rio de Janeiro | XII Seminário Nacional de História: Política, Cultura e Sociedade ? O legado freiriano para o século XXI: as interfaces entre História Política e História Pública.O gueto homossexual e a prática política do jornal Lampião da Esquina. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Paulo Cesar Machado Farias Junior</t>
+          <t>Vitória Luyza Cardoso Barbosa</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -5648,15 +5484,14 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Jornada de Estudos Históricos Professor Manuel Salgado.O baathismo na construção da república Síria: nacionalismo árabe e a importância da ?asabiyya.
-						2024. (Simpósio).</t>
+          <t>12º Seminário Memória, Documentação e Pesquisa: os 60 anos de 1964 e os impactos na UFRJ. 2024. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Paulo Cesar Machado Farias Junior</t>
+          <t>Vitória Luyza Cardoso Barbosa</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -5664,60 +5499,60 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Semana de História Puc-Rio.Nação e Revolução na Síria: o programa político curdo de Nação Democrática.
-						2024. (Simpósio).</t>
+          <t>21º Encontro de História da ANPUH-Rio: História, Democracia, Igualdade e Diversidade.
+						2024. (Encontro).</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Paulo Cesar Machado Farias Junior</t>
+          <t>Vitória Luyza Cardoso Barbosa</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>11ª Semana de Integração Acadêmica da Universidade Federal do Rio de Janeiro. 2022. (Congresso).</t>
+          <t>Repensando o Brasil: Arqueologia, História e Novas Perspectivas para a Construção do Passado?. 2024. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Paulo Cesar Machado Farias Junior</t>
+          <t>Vitória Luyza Cardoso Barbosa</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>V Semana de História - UFRJ.A Primavera Árabe na Síria: uma nova identidade em formação na Revolução Curda. 2022. (Seminário).</t>
+          <t>Seminário "Diálogos em Formação 2024 - Inclusões: Diferenças e  (des)Encontros".Arte, educação e resistência. 2024. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Paulo Cesar Machado Farias Junior</t>
+          <t>Vitória Luyza Cardoso Barbosa</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>XVI Semana de História Política.O movimento de mulheres curdas: a experiência revolucionária como esfera de formação de identidade. 2022. (Seminário).</t>
+          <t>Seminário Nacional - Justiça de Transição para Povos Indígenas,. 2024. (Seminário).</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Paulo Cesar Machado Farias Junior</t>
+          <t>Vitória Luyza Cardoso Barbosa</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -5725,1052 +5560,113 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>MACHADO, P. C.. Jornada de Estudos Históricos Professor Manoel Salgado. 2024. (Congresso).</t>
+          <t>V Congresso Internacional Mundos Indígenas (V COIMI). 2024. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Samuel Barbosa Junior</t>
+          <t>Vitória Luyza Cardoso Barbosa</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>I Seminário Internacional Laicidade &amp; Educação. 2024. (Seminário).</t>
+          <t>VI Semana de História da Universidade Federal do Rio de Janeiro (UFRJ).Indigenismo emancipatório e lugar de memória subterrânea no Alto Solimões (AM) entre a Ditadura Militar e a Redemocratização (1967-1989) - o caso do Grupo Magüta/Centro de Documentaçõa e Pesquisa do Alto Solimões (CDPAS/MAGÜTA). 2023. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Samuel Barbosa Junior</t>
+          <t>Vitória Luyza Cardoso Barbosa</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>XXIV Encontro Regional de História. Religião, Política e Ensino de História na Zona Oeste do Rio de Janeiro: reflexões sobre extremismos na Educação Básica. 2024. (Congresso).</t>
+          <t>I Simpósio Brasileiro de Arqueobotânica.Arqueobotânica nas redes: divulgação científica no meio digital.
+						2022. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Samuel Barbosa Junior</t>
+          <t>Vitória Luyza Cardoso Barbosa</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>1º Congresso Internacional Multidisciplinar sobre Educação. 2023. (Congresso).</t>
+          <t>Clubes de ciência no Rio de Janeiro: rede integrativa para a democratização e popularização de  da ciência.10 coisas que sabemos sobre os Sambaquis.. 2021. (Outra).</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Samuel Barbosa Junior</t>
+          <t>Vitória Luyza Cardoso Barbosa</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Encontro de Pesquisa: História Política e Extrema Direita.
-						2023. (Encontro).</t>
+          <t>IX Congresso Brasileiro de Extensão Universitária: redes para promover e defender os direitos humanos. Projeto de extensão Arqueologia Viva: primeiras impressões. 2021. (Congresso).</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Samuel Barbosa Junior</t>
+          <t>Yeda Santos de Azambuja Montes</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Seminário Internacional Direita Radical em Debate. 2023. (Seminário).</t>
+          <t>31° Simpósio Nacional de História: História, Verdade e Tecnologia,.
+						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Samuel Barbosa Junior</t>
+          <t>Yeda Santos de Azambuja Montes</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>VI Seminário de Estudos Medievais. 2023. (Seminário).</t>
+          <t>31º Simpósio Nacional de História: História, Verdade e Tecnologia.Pensando a intelectualidade feminina oitocentista a partir da escritora portuguesa Maria Amália Vaz de Carvalho (1847-1921).
+						2021. (Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Samuel Barbosa Junior</t>
+          <t>Yeda Santos de Azambuja Montes</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C283" t="inlineStr">
-        <is>
-          <t>V Seminário de Estudos Medievais - PEM/UERJ. 2022. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>Samuel Barbosa Junior</t>
-        </is>
-      </c>
-      <c r="B284" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>31º Simpósio Nacional de História da ANPUH.
-						2021. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>Samuel Barbosa Junior</t>
-        </is>
-      </c>
-      <c r="B285" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>BARBOSA JUNIOR, S.. Usos Políticos do Holocausto e do Genocídio. 2024. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>Samuel Barbosa Junior</t>
-        </is>
-      </c>
-      <c r="B286" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>BARBOSA JUNIOR, S.. I Encontro de Pesquisa sobre História Política e Extrema Direita. 2023. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>Thaís Regina Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B287" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>ANPUH.Os movimentos sociais e a sociedade civil como fator de mudança. 2024. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>Thaís Regina Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B288" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>ANPUH.REVÚS, REVOLUÇÃO TOTAL OU TUMULTO SOCIAL ? Sociedade civil angolana enquanto fator de mudança sociopolítica. 2023. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>Thaís Regina Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B289" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>BARBOSA, T. R. C.. Jornada Manoel Salgado - UFRJ. 2023. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>Thaís Regina Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B290" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>BARBOSA, T. R. C.. Revús: Tumulto social ou revolução total. 2023. (Apresentação de Trabalho/Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>Victor Brandão de Oliveira</t>
-        </is>
-      </c>
-      <c r="B291" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>Nos gramados da democracia: reflexões sobre esporte e mídia. 2023. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>Victor Brandão de Oliveira</t>
-        </is>
-      </c>
-      <c r="B292" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>XI Encontro de Pesquisa em História da UFMG - "Narrativas em disputa: nostalgia, identidades e apropriações do passado".O êxodo de nossos santos: o Brasil no mercado no futebolístico global (1978-90).
-						2023. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>Victor Brandão de Oliveira</t>
-        </is>
-      </c>
-      <c r="B293" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>11a Semana de Integração Acadêmica da Universidade Federal do Rio de Janeiro. 2022. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>Victor Brandão de Oliveira</t>
-        </is>
-      </c>
-      <c r="B294" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>4o Simpósio Internacional de Estudos sobre Futebol.“Zico ou Áustria”: os desdobramentos da transferência de Arthur Antunes Coimbra para o Udinese e as fronteiras invisíveis do futebol (1983).
-						2022. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>Victor Brandão de Oliveira</t>
-        </is>
-      </c>
-      <c r="B295" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>Jornada de Estudos Históricos Professor Manoel Salgado.Espetacularização, Globalização, Crise e os Mercados no Futebol: as transferências de jogadores brasileiros para clubes do exterior (1978-1990). 2022. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>Victor Brandão de Oliveira</t>
-        </is>
-      </c>
-      <c r="B296" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>IV Seminário Internacional Micro-história, Trajetória e Imigração.As fronteiras invisíveis do futebol: as transferências de jogadores brasileiros para clubes do exterior (1980-1990). 2021. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>Victor Brandão de Oliveira</t>
-        </is>
-      </c>
-      <c r="B297" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>VI Semana de História - Sujeitos, olhares e métodos: os desafios e perspectivas da interdisciplinaridade na História. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>Victor Lisboa da Fonseca Santos</t>
-        </is>
-      </c>
-      <c r="B298" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>?Foreigners and the shaping of Athenian citizenship in democratic Athens?. 2023. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>Victor Lisboa da Fonseca Santos</t>
-        </is>
-      </c>
-      <c r="B299" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>12 Semana de Integração Acadêmica da UFRJ. ?Que faça a vontade de YAWEH em tudo o que empreende a sua mão?: os sentidos do trabalho e da disciplina a comunidade essênia de Qumran.. 2023. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>Victor Lisboa da Fonseca Santos</t>
-        </is>
-      </c>
-      <c r="B300" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>Conferência Internacional Israel Como Modelo Cultural: imaginários e usos na nova extrema-direita. 2023. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>Victor Lisboa da Fonseca Santos</t>
-        </is>
-      </c>
-      <c r="B301" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>X Ciclo Internacional de Estudos Antigos e Medievais: Humanidades e Tecnologias aplicadas à Antiguidade e Medievalidade.. O Trabalho nos textos sectários de Qumran: considerações iniciais sobre a economia dos essênios do Mar Morto.. 2023. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>Victor Lisboa da Fonseca Santos</t>
-        </is>
-      </c>
-      <c r="B302" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>XIX Jornada de História Antiga / III Jornada Internacional de História Antiga e Medieval: Religião, Conectividade e Conflitos no Mediterrâneo Antigouot;. As relações de Trabalho em Qumran: reflexões iniciais sobre a economia monástica às margens do Mar Morto. 2023. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>Victor Lisboa da Fonseca Santos</t>
-        </is>
-      </c>
-      <c r="B303" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>XXXIII Ciclo de Debates em História Antiga ? História Antiga em Movimento: 30 anos do LHIA.. 2023. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>Victor Lisboa da Fonseca Santos</t>
-        </is>
-      </c>
-      <c r="B304" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>XXXIII Ciclo de Debates em História Antiga ? História Antiga em Movimento: 30 anos do LHIA.. Quando o Deserto se torna uma ilha: considerações iniciais sobre a Comunidade e Qumran e o Deserto da Judeia.. 2023. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>Victor Lisboa da Fonseca Santos</t>
-        </is>
-      </c>
-      <c r="B305" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>XXXIII Ciclo de Debates em História Antiga ? História Antiga em Movimento: 30 anos do LHIA.. Entre ver e enxergar: a escrita da História no Projeto de Extensão Viva+Cidade. 2023. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>Victor Lisboa da Fonseca Santos</t>
-        </is>
-      </c>
-      <c r="B306" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>VIII Ciclo de Debates em Antiguidade: Diferentes Olhares sobre a Antiguidade Oriental. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>Victor Lisboa da Fonseca Santos</t>
-        </is>
-      </c>
-      <c r="B307" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>FONTES, A. L. ; Gaia, D.V. ; LESSA, F. S. ;SANTOS, Victor Lisboa da Fonseca. XXXIII Ciclo de Debates em História Antiga ? História Antiga em Movimento: 30 anos do LHIA.. 2023. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>Victor Lisboa da Fonseca Santos</t>
-        </is>
-      </c>
-      <c r="B308" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>SANTOS, Victor Lisboa da Fonseca. XXXII Ciclo de Debates em História Antiga do Laboratório de História Antiga da UFRJ. 2022. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>Victor Lisboa da Fonseca Santos</t>
-        </is>
-      </c>
-      <c r="B309" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>SANTOS, Victor Lisboa da Fonseca. XXXI CIclo de Debates em História Antiga do Laboratório de História Antiga da UFRJ. 2021. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
-        </is>
-      </c>
-      <c r="B310" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>"Vítimas ou resistentes? A produção de memórias sobre as experiências de pessoas LGBT+ durante a Ditadura Civil-Militar Brasileira. 2024. (Oficina).</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
-        </is>
-      </c>
-      <c r="B311" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>21º Encontro de História da Anpuh-Rio: História, Democracia, Igualdade e Diversidade.
-						2024. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
-        </is>
-      </c>
-      <c r="B312" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>21º Encontro de História da Anpuh-Rio: História, Democracia, Igualdade e Diversidade.Trajetória de João Silvério Trevisan: Formação política e diálogo com as esquerdas.
-						2024. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
-        </is>
-      </c>
-      <c r="B313" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>60 anos do golpe de 1964: periodização do regime em debate. 2024. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
-        </is>
-      </c>
-      <c r="B314" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>Seminário 60 anos do golpe: história, memória e novas abordagens da ditadura no Brasil. 2024. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
-        </is>
-      </c>
-      <c r="B315" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>Seminário História, Memória e Luta no Presente: reflexões a partir de imagens e testemunhos da Ditadura Militar Brasileira. 2024. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
-        </is>
-      </c>
-      <c r="B316" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>I Encontro de Pesquisa História Política e Extrema Direita.O fundamentalismo de direita segundo João Silvério Trevisan.
-						2023. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
-        </is>
-      </c>
-      <c r="B317" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>Jornada de Estudos Históricos Professor Manoel Salgado ? Edição 2023.As memórias de João Silvério Trevisan em "Pai, Pai" (2017). 2023. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
-        </is>
-      </c>
-      <c r="B318" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>o 4º Encontro Internacional História &amp; Parcerias.Análise do testemunho de João Silvério Trevisan ao Memorial da Resistência de São Paulo: da infância ao exílio.
-						2023. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
-        </is>
-      </c>
-      <c r="B319" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>Semana de História PUC-Rio 2023: História, Arte e Literatura.A resistência do vaga-lume: o pensamento de João Silvério Trevisan acerca da vivência e do ativismo homossexual no Brasil durante as décadas de 1970 e 1980. 2023. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
-        </is>
-      </c>
-      <c r="B320" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>Seminário História Oral, Memória e Violência Política no Mundo Contemporâneo. 2023. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
-        </is>
-      </c>
-      <c r="B321" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>Seminário História Oral, Memória e Violência Política no Mundo Contemporâneo.O jornal Lampião da Esquina e a prática política homossexual. 2023. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
-        </is>
-      </c>
-      <c r="B322" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>XVII Semana de História Política da Universidade do Estado do Rio de Janeiro | XIV Seminário Nacional de História: Política, Cultura e Sociedade ? Povos Originários e Ancestralidade: florestanias e alianças afetivas..As memórias de João Silvério Trevisan em "Pai, Pai" (2017). 2023. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
-        </is>
-      </c>
-      <c r="B323" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>III Seminário de Pesquisa e Ensino da Graduação em História.O gueto homossexual e o texto "Saindo do Gueto" do Jornal Lampião da Esquina. 2021. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
-        </is>
-      </c>
-      <c r="B324" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>XLII Jornada Giulio Massarani de Iniciação Científica, Tecnológica, Artística e Cultural (JICTAC 2020 - Edição Especial).O jornal Lampião da Esquina e a prática política homossexual. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
-        </is>
-      </c>
-      <c r="B325" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>XV Semana de História Política da Universidade do Estado do Rio de Janeiro | XII Seminário Nacional de História: Política, Cultura e Sociedade ? O legado freiriano para o século XXI: as interfaces entre História Política e História Pública.O gueto homossexual e a prática política do jornal Lampião da Esquina. 2021. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
-        </is>
-      </c>
-      <c r="B326" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>MOREIRA, A. ; MÜLLER, A. ; PIMENTEL, I. ; CORRÊA, L. ; GRINBERG, L. ; ARAUJO, M. P. ; MORAES, R. ; QUADRAT, S. ;GONÇALVES, V. P. S. M.. Seminário 60 anos do golpe: história, memória e novas abordagens da ditadura no Brasil. 2024. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
-        </is>
-      </c>
-      <c r="B327" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>ANDRADE, M. C. S.;ARAUJO, M. P. N.;CAMPANHOLO, B. G.;EUGENIO, A. S.;FONTES SOBRINHO, D.;GHERMAN, M.;GONÇALVES, V. P. S. M.;MARTINS, M. V.;NASCIMENTO, B. M.;PINTO, S. A.;SILVA, I. G.;SILVA, I. P. P.;SILVA, L. C.;TARDITE, V. N.. 45 anos do golpe e da ditadura na Argentina: História, memória e diálogos com o Brasil. 2021. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>Vitória Luyza Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B328" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>12º Seminário Memória, Documentação e Pesquisa: os 60 anos de 1964 e os impactos na UFRJ. 2024. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>Vitória Luyza Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B329" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>21º Encontro de História da ANPUH-Rio: História, Democracia, Igualdade e Diversidade.
-						2024. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>Vitória Luyza Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B330" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>Repensando o Brasil: Arqueologia, História e Novas Perspectivas para a Construção do Passado?. 2024. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>Vitória Luyza Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B331" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>Seminário "Diálogos em Formação 2024 - Inclusões: Diferenças e  (des)Encontros".Arte, educação e resistência. 2024. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>Vitória Luyza Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B332" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>Seminário Nacional - Justiça de Transição para Povos Indígenas,. 2024. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>Vitória Luyza Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B333" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>V Congresso Internacional Mundos Indígenas (V COIMI). 2024. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>Vitória Luyza Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B334" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>VI Semana de História da Universidade Federal do Rio de Janeiro (UFRJ).Indigenismo emancipatório e lugar de memória subterrânea no Alto Solimões (AM) entre a Ditadura Militar e a Redemocratização (1967-1989) - o caso do Grupo Magüta/Centro de Documentaçõa e Pesquisa do Alto Solimões (CDPAS/MAGÜTA). 2023. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>Vitória Luyza Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B335" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>I Simpósio Brasileiro de Arqueobotânica.Arqueobotânica nas redes: divulgação científica no meio digital.
-						2022. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>Vitória Luyza Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B336" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>Clubes de ciência no Rio de Janeiro: rede integrativa para a democratização e popularização de  da ciência.10 coisas que sabemos sobre os Sambaquis.. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>Vitória Luyza Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B337" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>IX Congresso Brasileiro de Extensão Universitária: redes para promover e defender os direitos humanos. Projeto de extensão Arqueologia Viva: primeiras impressões. 2021. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>Vitória Luyza Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B338" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>LEMOS, Cesar de Miranda e;BARBOSA, V. L. C.. Repensando o Brasil: Arqueologia, História e Novas Perspectivas para a Construção do Passado. 2024. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>Vitória Luyza Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B339" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>LEMOS, Cesar de Miranda e;BARBOSA, V. L. C.; VICENTE, M. A. D. . O dia dos povos indígenas: a lei 11.645/2008 e o ensino e a pesquisa em História Indígena. 2023. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>Vitória Luyza Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B340" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>LEMOS, Cesar de Miranda e;BARBOSA, V. L. C.; VICENTE, M. A. D. . Por uma educação anti-racista: do MPI a sala de aula. 2023. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>Vitória Luyza Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B341" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>BARBOSA, V. L. C.. V Semana de História da Universidade Federal do Rio de Janeiro - Outras memórias, novas narrativas: os lugares da historiografia na visibilização de sujeitos marginalizados em discursos sobre o passado. 2022. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>Vitória Luyza Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B342" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>BARBOSA, V. L. C.;SCHEEL-YBERT, R.;MEDEIROS, N. F. M.;TUTUNJI, N. M.;LOPES, B. S. G.;ANDRADE, V. S. D.;NASCIMENTO, T. C.;CAPUCHO, T. C. J. P.;PATZLAFF, R.;AZEVEDO, L. W.. Projeto de extensão Arqueologia Viva: primeiras impressões. 2021. (Apresentação de Trabalho/Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>Yeda Santos de Azambuja Montes</t>
-        </is>
-      </c>
-      <c r="B343" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>31° Simpósio Nacional de História: História, Verdade e Tecnologia,.
-						2021. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>Yeda Santos de Azambuja Montes</t>
-        </is>
-      </c>
-      <c r="B344" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>31º Simpósio Nacional de História: História, Verdade e Tecnologia.Pensando a intelectualidade feminina oitocentista a partir da escritora portuguesa Maria Amália Vaz de Carvalho (1847-1921).
-						2021. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>Yeda Santos de Azambuja Montes</t>
-        </is>
-      </c>
-      <c r="B345" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C345" t="inlineStr">
         <is>
           <t>Seminário Maternidades Plurais: Maternidade na História. 2021. (Seminário).</t>
         </is>
